--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlynn\Aspace\archivesspace\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8037833-0301-4B79-A6FB-37C600ECEA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2DD24-CC43-470B-BE12-CF5B12BCA25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -58,9 +58,6 @@
     <t>The Resource "Identifier", aka collection-level unit_id, OR, could be internal resource record number from URL.</t>
   </si>
   <si>
-    <t>Archival Object Basic Information</t>
-  </si>
-  <si>
     <t>Resource Identifying Information</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
   </si>
   <si>
     <t>Digital Object Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAD ID </t>
-  </si>
-  <si>
-    <t>Ref_id</t>
-  </si>
-  <si>
-    <t>REF ID</t>
   </si>
   <si>
     <t>Digital Object ID</t>
@@ -97,9 +85,6 @@
   <si>
     <t>Thumbnail URL
 (Will set Actuate=onLoad, Show=embed)</t>
-  </si>
-  <si>
-    <t>ao_ref_id</t>
   </si>
   <si>
     <t>File URL of Linked-to digital object</t>
@@ -135,6 +120,18 @@
   </si>
   <si>
     <t>This is the template for use with the bulk_import ("Load SpreadSheet") for importing digital ob jects to associate with archival objects .  You may replace this line with something of your choosing after you've copied the file for your use.</t>
+  </si>
+  <si>
+    <t>Resource URI REQUIRED IF NO EAD ID</t>
+  </si>
+  <si>
+    <t>res_uri</t>
+  </si>
+  <si>
+    <t>Resource URI</t>
+  </si>
+  <si>
+    <t>EAD ID REQUIRED IF NO URI</t>
   </si>
 </sst>
 </file>
@@ -306,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -378,6 +375,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,7 +802,7 @@
     <col min="2" max="2" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.68359375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83984375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.26171875" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.15625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.68359375" customWidth="1"/>
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -850,39 +850,39 @@
     </row>
     <row r="3" spans="1:10" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>1</v>
@@ -893,23 +893,23 @@
       <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>25</v>
+      <c r="E4" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -926,22 +926,22 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlynn\Aspace\archivesspace\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2DD24-CC43-470B-BE12-CF5B12BCA25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12955ED-E266-41D0-9BAB-0E8C7C635DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2754" yWindow="540" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -58,6 +58,9 @@
     <t>The Resource "Identifier", aka collection-level unit_id, OR, could be internal resource record number from URL.</t>
   </si>
   <si>
+    <t>Archival Object Basic Information</t>
+  </si>
+  <si>
     <t>Resource Identifying Information</t>
   </si>
   <si>
@@ -68,6 +71,15 @@
   </si>
   <si>
     <t>Digital Object Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAD ID </t>
+  </si>
+  <si>
+    <t>Ref_id</t>
+  </si>
+  <si>
+    <t>REF ID</t>
   </si>
   <si>
     <t>Digital Object ID</t>
@@ -85,6 +97,9 @@
   <si>
     <t>Thumbnail URL
 (Will set Actuate=onLoad, Show=embed)</t>
+  </si>
+  <si>
+    <t>ao_ref_id</t>
   </si>
   <si>
     <t>File URL of Linked-to digital object</t>
@@ -129,9 +144,6 @@
   </si>
   <si>
     <t>Resource URI</t>
-  </si>
-  <si>
-    <t>EAD ID REQUIRED IF NO URI</t>
   </si>
 </sst>
 </file>
@@ -789,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALI6"/>
+  <dimension ref="A1:ALJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -803,37 +815,38 @@
     <col min="3" max="3" width="11.68359375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83984375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26171875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.15625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.68359375" customWidth="1"/>
-    <col min="9" max="9" width="17.26171875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.41796875" style="1" customWidth="1"/>
-    <col min="11" max="997" width="9.26171875" style="1"/>
+    <col min="6" max="6" width="10.68359375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.26171875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.15625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.68359375" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.41796875" style="1" customWidth="1"/>
+    <col min="12" max="998" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>2</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>2</v>
@@ -844,45 +857,51 @@
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="K2" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>1</v>
@@ -894,25 +913,28 @@
         <v>7</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>25</v>
+      <c r="K4" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -926,28 +948,31 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlynn\Aspace\archivesspace\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12955ED-E266-41D0-9BAB-0E8C7C635DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F55A38-6E63-4BE2-BF7A-31E8D880EF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2754" yWindow="540" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1416" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">EAD ID </t>
-  </si>
-  <si>
-    <t>Ref_id</t>
   </si>
   <si>
     <t>REF ID</t>
@@ -144,6 +141,18 @@
   </si>
   <si>
     <t>Resource URI</t>
+  </si>
+  <si>
+    <t>ao_uri</t>
+  </si>
+  <si>
+    <t>Arch. Obj. URI</t>
+  </si>
+  <si>
+    <t>Ref_id  REQUIRED IF NO URI</t>
+  </si>
+  <si>
+    <t>Archival Object URI  REQUIRED IF NO REF ID</t>
   </si>
 </sst>
 </file>
@@ -801,11 +810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALJ6"/>
+  <dimension ref="A1:ALK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -815,21 +824,21 @@
     <col min="3" max="3" width="11.68359375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83984375" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.68359375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26171875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.15625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.68359375" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.41796875" style="1" customWidth="1"/>
-    <col min="12" max="998" width="9.26171875" style="1"/>
+    <col min="6" max="7" width="10.68359375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.26171875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.15625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.68359375" customWidth="1"/>
+    <col min="11" max="11" width="17.26171875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.41796875" style="1" customWidth="1"/>
+    <col min="13" max="999" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -848,8 +857,8 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -860,13 +869,16 @@
       <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -878,30 +890,33 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>1</v>
@@ -913,28 +928,31 @@
         <v>7</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -948,31 +966,34 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlynn\Aspace\archivesspace\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8037833-0301-4B79-A6FB-37C600ECEA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F55A38-6E63-4BE2-BF7A-31E8D880EF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1416" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">EAD ID </t>
-  </si>
-  <si>
-    <t>Ref_id</t>
   </si>
   <si>
     <t>REF ID</t>
@@ -135,6 +132,27 @@
   </si>
   <si>
     <t>This is the template for use with the bulk_import ("Load SpreadSheet") for importing digital ob jects to associate with archival objects .  You may replace this line with something of your choosing after you've copied the file for your use.</t>
+  </si>
+  <si>
+    <t>Resource URI REQUIRED IF NO EAD ID</t>
+  </si>
+  <si>
+    <t>res_uri</t>
+  </si>
+  <si>
+    <t>Resource URI</t>
+  </si>
+  <si>
+    <t>ao_uri</t>
+  </si>
+  <si>
+    <t>Arch. Obj. URI</t>
+  </si>
+  <si>
+    <t>Ref_id  REQUIRED IF NO URI</t>
+  </si>
+  <si>
+    <t>Archival Object URI  REQUIRED IF NO REF ID</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -378,6 +396,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,11 +810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALI6"/>
+  <dimension ref="A1:ALK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -802,21 +823,22 @@
     <col min="2" max="2" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.68359375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83984375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26171875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.15625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.68359375" customWidth="1"/>
-    <col min="9" max="9" width="17.26171875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.41796875" style="1" customWidth="1"/>
-    <col min="11" max="997" width="9.26171875" style="1"/>
+    <col min="5" max="5" width="11.68359375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.68359375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.26171875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.15625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.68359375" customWidth="1"/>
+    <col min="11" max="11" width="17.26171875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.41796875" style="1" customWidth="1"/>
+    <col min="13" max="999" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -830,13 +852,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -844,13 +866,19 @@
       <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -862,27 +890,33 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="K3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>1</v>
@@ -893,26 +927,32 @@
       <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>25</v>
+      <c r="E4" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -926,28 +966,34 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlynn\Aspace\archivesspace\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F55A38-6E63-4BE2-BF7A-31E8D880EF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA6D11-1A80-496B-98B6-D8EC5724329B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1416" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="672" windowWidth="19884" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Publish Digital Object Record</t>
   </si>
   <si>
-    <t>This is the template for use with the bulk_import ("Load SpreadSheet") for importing digital ob jects to associate with archival objects .  You may replace this line with something of your choosing after you've copied the file for your use.</t>
-  </si>
-  <si>
     <t>Resource URI REQUIRED IF NO EAD ID</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Archival Object URI  REQUIRED IF NO REF ID</t>
+  </si>
+  <si>
+    <t>This is the template for use with the bulk_import (Load SpreadSheet) for importing digital ob jects to associate with archival objects .  You may replace this line with something of your choosing after you've copied the file for your use.</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -835,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -890,13 +890,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>30</v>
@@ -928,13 +928,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>20</v>
@@ -966,13 +966,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>19</v>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlynn\Aspace\archivesspace\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woodford/Documents/GitHub/archivesspace/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F55A38-6E63-4BE2-BF7A-31E8D880EF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCF748-4569-414A-BD02-5EDFE44EC6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1416" windowWidth="18432" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7760" yWindow="6060" windowWidth="18440" windowHeight="11540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
   <si>
-    <t>collection_id</t>
-  </si>
-  <si>
     <t>Digital Object</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
   </si>
   <si>
     <t>digital_object_title</t>
-  </si>
-  <si>
-    <t>Resource Identifier</t>
-  </si>
-  <si>
-    <t>The Resource "Identifier", aka collection-level unit_id, OR, could be internal resource record number from URL.</t>
   </si>
   <si>
     <t>Archival Object Basic Information</t>
@@ -159,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,18 +201,11 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,12 +216,6 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -324,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -347,13 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,7 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,28 +349,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,190 +776,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALK6"/>
+  <dimension ref="A1:ALJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.26171875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83984375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.68359375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.26171875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.15625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.68359375" customWidth="1"/>
-    <col min="11" max="11" width="17.26171875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.41796875" style="1" customWidth="1"/>
-    <col min="13" max="999" width="9.26171875" style="1"/>
+    <col min="1" max="1" width="22.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
+    <col min="12" max="998" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="41.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woodford/Documents/GitHub/archivesspace/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoffman/archivesspace/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCF748-4569-414A-BD02-5EDFE44EC6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B51BF7-1D54-2A45-BECB-81110626C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="6060" windowWidth="18440" windowHeight="11540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="32260" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Archival Object URI  REQUIRED IF NO REF ID</t>
+  </si>
+  <si>
+    <t>digital_object_link_publish</t>
+  </si>
+  <si>
+    <t>Publish linked-to file?</t>
+  </si>
+  <si>
+    <t>Publish thumbnail?</t>
+  </si>
+  <si>
+    <t>thumbnail_publish</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -365,6 +377,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALJ6"/>
+  <dimension ref="A1:ALL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -793,17 +811,17 @@
     <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
-    <col min="12" max="998" width="9.33203125" style="1"/>
+    <col min="10" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.5" style="1" customWidth="1"/>
+    <col min="14" max="1000" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -834,11 +852,17 @@
       <c r="J2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="L2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -869,11 +893,17 @@
       <c r="J3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="M3" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -905,10 +935,16 @@
         <v>2</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="M4" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -940,10 +976,16 @@
         <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="M5" s="23" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoffman/archivesspace/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B51BF7-1D54-2A45-BECB-81110626C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA65E0-D352-B74B-9FB5-C23530C15623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="460" windowWidth="32260" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,8 +797,8 @@
   <dimension ref="A1:ALL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="5" topLeftCell="A1048555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1048555" sqref="M1048555:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -988,7 +988,7 @@
     <row r="6" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000 K6:K1048576 M1048555:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoffman/archivesspace/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/work/projects/archivesspace/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA65E0-D352-B74B-9FB5-C23530C15623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95CE9C3-D197-E74B-82BF-E6CD562813B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="32260" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -156,13 +156,22 @@
   </si>
   <si>
     <t>thumbnail_publish</t>
+  </si>
+  <si>
+    <t>is_representative</t>
+  </si>
+  <si>
+    <t>Representative file version?</t>
+  </si>
+  <si>
+    <t>is representative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,6 +225,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -243,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -310,11 +326,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -331,10 +358,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -361,28 +385,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,9 +498,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -514,9 +538,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,26 +573,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,26 +608,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -796,14 +786,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1048555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1048555" sqref="M1048555:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
@@ -813,19 +803,20 @@
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
     <col min="10" max="11" width="17.33203125" style="1" customWidth="1"/>
     <col min="12" max="13" width="17.5" style="1" customWidth="1"/>
-    <col min="14" max="1000" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="15.83203125" style="1" customWidth="1"/>
+    <col min="15" max="1000" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -840,30 +831,33 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="N2" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:14" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -881,71 +875,77 @@
       <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>41</v>
       </c>
+      <c r="N3" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:14" s="16" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="22" t="s">
         <v>42</v>
       </c>
+      <c r="N4" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:14" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -963,7 +963,7 @@
       <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -981,11 +981,14 @@
       <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="20" t="s">
         <v>25</v>
       </c>
+      <c r="N5" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000 K6:K1048576 M1048555:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/work/projects/archivesspace/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95CE9C3-D197-E74B-82BF-E6CD562813B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDA82B-3098-C34B-8B72-3EEB14E306B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="27040" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Digital Object</t>
   </si>
   <si>
-    <t>digital_object_link</t>
-  </si>
-  <si>
     <t>ead</t>
   </si>
   <si>
@@ -79,30 +76,13 @@
     <t>Mapping - ArchivesSpace record FIELD with comments</t>
   </si>
   <si>
-    <t>Linked-to Digital Object URL 
-(Will set Actuate=onRequest, Show=new)</t>
-  </si>
-  <si>
-    <t>Thumbnail URL
-(Will set Actuate=onLoad, Show=embed)</t>
-  </si>
-  <si>
     <t>ao_ref_id</t>
   </si>
   <si>
-    <t>File URL of Linked-to digital object</t>
-  </si>
-  <si>
-    <t>File URL of Thumbnail</t>
-  </si>
-  <si>
     <t>ArchivesSpace digital object import field codes (please don't edit this row)</t>
   </si>
   <si>
     <t>publish</t>
-  </si>
-  <si>
-    <t>thumbnail</t>
   </si>
   <si>
     <t xml:space="preserve">Digital Object Identifier
@@ -146,25 +126,166 @@
     <t>Archival Object URI  REQUIRED IF NO REF ID</t>
   </si>
   <si>
-    <t>digital_object_link_publish</t>
-  </si>
-  <si>
-    <t>Publish linked-to file?</t>
-  </si>
-  <si>
-    <t>Publish thumbnail?</t>
-  </si>
-  <si>
-    <t>thumbnail_publish</t>
-  </si>
-  <si>
-    <t>is_representative</t>
-  </si>
-  <si>
-    <t>Representative file version?</t>
-  </si>
-  <si>
-    <t>is representative</t>
+    <t>Linked-to URL for representative file version</t>
+  </si>
+  <si>
+    <t>Use Statement for representative file version</t>
+  </si>
+  <si>
+    <t>Xlink actuate attribute for representative file version (previous default 'onRequest')</t>
+  </si>
+  <si>
+    <t>Xlink show attribute for representative file version (previous default 'new')</t>
+  </si>
+  <si>
+    <t>File Format Name for representative file version</t>
+  </si>
+  <si>
+    <t>File Format Version for representative file version</t>
+  </si>
+  <si>
+    <t>File size (bytes) for representative file version</t>
+  </si>
+  <si>
+    <t>Checksum for representative file version</t>
+  </si>
+  <si>
+    <t>Checksum Method for representative file version</t>
+  </si>
+  <si>
+    <t>Caption for representative file version</t>
+  </si>
+  <si>
+    <t>Linked-to URL for non-representative file version</t>
+  </si>
+  <si>
+    <t>Publish non-representative file version?</t>
+  </si>
+  <si>
+    <t>Use Statement for non-representative file version</t>
+  </si>
+  <si>
+    <t>Xlink actuate attribute for non-representative file version (previous default 'onLoad')</t>
+  </si>
+  <si>
+    <t>Xlink show attribute for non-representative file version (previous default 'embed')</t>
+  </si>
+  <si>
+    <t>File Format Name for non-representative file version</t>
+  </si>
+  <si>
+    <t>File Format Version for non-representative file version</t>
+  </si>
+  <si>
+    <t>File size (bytes) for non-representative file version</t>
+  </si>
+  <si>
+    <t>Checksum for non-representative file version</t>
+  </si>
+  <si>
+    <t>Checksum Method for non-representative file version</t>
+  </si>
+  <si>
+    <t>Caption for non-representative file version</t>
+  </si>
+  <si>
+    <t>rep_use_statement</t>
+  </si>
+  <si>
+    <t>rep_xlink_actuate_attribute</t>
+  </si>
+  <si>
+    <t>rep_xlink_show_attribute</t>
+  </si>
+  <si>
+    <t>rep_file_format</t>
+  </si>
+  <si>
+    <t>rep_file_format_version</t>
+  </si>
+  <si>
+    <t>rep_file_size</t>
+  </si>
+  <si>
+    <t>rep_checksum</t>
+  </si>
+  <si>
+    <t>rep_checksum_method</t>
+  </si>
+  <si>
+    <t>rep_caption</t>
+  </si>
+  <si>
+    <t>nonrep_publish</t>
+  </si>
+  <si>
+    <t>nonrep_use_statement</t>
+  </si>
+  <si>
+    <t>nonrep_xlink_actuate_attribute</t>
+  </si>
+  <si>
+    <t>nonrep_xlink_show_attribute</t>
+  </si>
+  <si>
+    <t>nonrep_file_format</t>
+  </si>
+  <si>
+    <t>nonrep_file_format_version</t>
+  </si>
+  <si>
+    <t>nonrep_file_size</t>
+  </si>
+  <si>
+    <t>nonrep_checksum</t>
+  </si>
+  <si>
+    <t>nonrep_checksum_method</t>
+  </si>
+  <si>
+    <t>nonrep_caption</t>
+  </si>
+  <si>
+    <t>URL of representative file version</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Use Statement</t>
+  </si>
+  <si>
+    <t>xlink actuate attribute</t>
+  </si>
+  <si>
+    <t>xlink show attribute</t>
+  </si>
+  <si>
+    <t>File Format Name</t>
+  </si>
+  <si>
+    <t>File Format Version</t>
+  </si>
+  <si>
+    <t>File Size</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>Checksum Method</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>URL of non-representative file version</t>
+  </si>
+  <si>
+    <t>rep_file_uri</t>
+  </si>
+  <si>
+    <t>nonrep_file_uri</t>
   </si>
 </sst>
 </file>
@@ -226,14 +347,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +378,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F1"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFE6E0EC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -326,22 +458,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -364,9 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -397,18 +515,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,16 +900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALL6"/>
+  <dimension ref="A1:ALK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
@@ -801,198 +917,405 @@
     <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="1" customWidth="1"/>
-    <col min="15" max="1000" width="9.33203125" style="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="1" customWidth="1"/>
+    <col min="14" max="999" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>1</v>
+    <row r="4" spans="1:30" s="15" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:30" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>44</v>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="16" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>43</v>
-      </c>
+    <row r="6" spans="1:30" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="21"/>
     </row>
-    <row r="5" spans="1:14" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000 K6:K1048576 M1048555:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1000 L1048555:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"FALSE,TRUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R1005 AC6" xr:uid="{E19F99B6-DD7B-4041-9C1B-21F2A327427A}">
+      <formula1>"MD5,SHA-1,SHA-256,SHA-384,SHA-512"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M1005 X6:X1005" xr:uid="{E2D13213-7055-244F-8C8C-D708D6A65BFF}">
+      <formula1>"embed,new,none,other,replace"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1005 W6:W1005" xr:uid="{A14C86AA-F54B-1E4D-A788-32DEB7EC3034}">
+      <formula1>"none,onLoad,onRequest,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K1005 U6:U1005" xr:uid="{F30C24B7-91FF-3A47-B0B4-3C437D58D1D3}">
+      <formula1>"FALSE,TRUE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/work/projects/archivesspace/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDA82B-3098-C34B-8B72-3EEB14E306B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFEC2BD-3F2F-3C4B-A5D2-6262967E7122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="27040" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>ArchivesSpace digital object import field codes (please don't edit this row)</t>
   </si>
   <si>
-    <t>publish</t>
-  </si>
-  <si>
     <t xml:space="preserve">Digital Object Identifier
 (Leave this blank to get a default system-assigned Digital Object Identifier that is based on the Archival Object Ref ID. Or enter a custom identifier here to override the default. Custom identifier must be unique within ArchivesSpace.  Note that Digital Object Identifiers are not exported in the EAD.)
 </t>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>nonrep_file_uri</t>
+  </si>
+  <si>
+    <t>digital_object_publish</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1031,85 +1031,85 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="T3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="15" customFormat="1" ht="41.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1123,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>16</v>
@@ -1138,70 +1138,70 @@
         <v>7</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="J4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="20" t="s">
+      <c r="U4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U4" s="20" t="s">
+      <c r="V4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="20" t="s">
+      <c r="W4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="X4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="Y4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Z4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="AA4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AB4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1215,13 +1215,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>15</v>
@@ -1230,70 +1230,70 @@
         <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="V5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="19" thickTop="1" x14ac:dyDescent="0.2">

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="294">
   <si>
     <t xml:space="preserve">This is the template for use with the bulk_import ("Load SpreadSheet") for importing digital ob jects to associate with archival objects .  You may replace this line with something of your choosing after you've copied the file for your use.</t>
   </si>
@@ -100,6 +100,9 @@
 (cartographic/mixed_materials/moving_image/notated_music/software_multimedia/sound_recording/sound_recording_musical/sound_recording_nonmusical/still_image/text)</t>
   </si>
   <si>
+    <t xml:space="preserve">Digital Object Restrictions (FALSE/TRUE)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linked-to URL for representative file version</t>
   </si>
   <si>
@@ -304,6 +307,9 @@
     <t xml:space="preserve">digital_object_type</t>
   </si>
   <si>
+    <t xml:space="preserve">restrictions</t>
+  </si>
+  <si>
     <t xml:space="preserve">rep_file_uri</t>
   </si>
   <si>
@@ -638,6 +644,9 @@
   </si>
   <si>
     <t xml:space="preserve">Digital Object Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrictions</t>
   </si>
   <si>
     <t xml:space="preserve">URL of representative file version</t>
@@ -1349,12 +1358,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DH1005"/>
+  <dimension ref="A1:DI1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CX1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="CX1" activeCellId="0" sqref="CX1"/>
-      <selection pane="bottomLeft" activeCell="DH5" activeCellId="0" sqref="DH5"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,70 +1377,71 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="25.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="15.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="32" min="16" style="2" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="3" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="23.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="23.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="3" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="44" style="2" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="2" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="73" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="2" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="77" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="81" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="85" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="2" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="2" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="92" style="2" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="95" style="2" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="2" width="15.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="98" min="98" style="2" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="2" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="2" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="2" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="104" style="2" width="17.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1002" min="113" style="2" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1003" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="15.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="17" style="2" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="3" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="3" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="23.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="3" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="3" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="23.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="3" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="45" style="2" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="2" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="2" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="2" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="2" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="74" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="2" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="78" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="82" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="86" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="2" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="2" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="2" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="93" style="2" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="96" style="2" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="2" width="15.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="99" min="99" style="2" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="2" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="2" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="2" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="105" style="2" width="17.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="114" style="2" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1004" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CV1" s="2"/>
-      <c r="CY1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CZ1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1530,44 +1540,44 @@
       <c r="AF2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AO2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>9</v>
@@ -1602,8 +1612,8 @@
       <c r="BD2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="10" t="s">
-        <v>10</v>
+      <c r="BE2" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="BF2" s="10" t="s">
         <v>10</v>
@@ -1722,8 +1732,8 @@
       <c r="CR2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="CS2" s="11" t="s">
-        <v>11</v>
+      <c r="CS2" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>11</v>
@@ -1746,8 +1756,8 @@
       <c r="CZ2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="12" t="s">
-        <v>12</v>
+      <c r="DA2" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>12</v>
@@ -1768,6 +1778,9 @@
         <v>12</v>
       </c>
       <c r="DH2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="DI2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1868,43 +1881,43 @@
       <c r="AF3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AI3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AK3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN3" s="18" t="s">
+      <c r="AM3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AO3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="18" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="AT3" s="20" t="s">
@@ -1913,17 +1926,17 @@
       <c r="AU3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AV3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="AW3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="22" t="s">
+      <c r="AX3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AY3" s="20" t="s">
-        <v>51</v>
+      <c r="AY3" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="AZ3" s="20" t="s">
         <v>52</v>
@@ -1931,16 +1944,16 @@
       <c r="BA3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="BB3" s="21" t="s">
+      <c r="BB3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="BC3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BD3" s="22" t="s">
+      <c r="BD3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BE3" s="23" t="s">
+      <c r="BE3" s="22" t="s">
         <v>57</v>
       </c>
       <c r="BF3" s="23" t="s">
@@ -1953,7 +1966,7 @@
         <v>60</v>
       </c>
       <c r="BI3" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BJ3" s="23" t="s">
         <v>58</v>
@@ -1962,10 +1975,10 @@
         <v>59</v>
       </c>
       <c r="BL3" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BM3" s="23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BN3" s="23" t="s">
         <v>58</v>
@@ -1974,10 +1987,10 @@
         <v>59</v>
       </c>
       <c r="BP3" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BQ3" s="23" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BR3" s="23" t="s">
         <v>58</v>
@@ -1986,10 +1999,10 @@
         <v>59</v>
       </c>
       <c r="BT3" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BU3" s="23" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BV3" s="23" t="s">
         <v>58</v>
@@ -1998,7 +2011,7 @@
         <v>59</v>
       </c>
       <c r="BX3" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BY3" s="23" t="s">
         <v>63</v>
@@ -2013,7 +2026,7 @@
         <v>66</v>
       </c>
       <c r="CC3" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CD3" s="23" t="s">
         <v>64</v>
@@ -2037,7 +2050,7 @@
         <v>70</v>
       </c>
       <c r="CK3" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="CL3" s="23" t="s">
         <v>68</v>
@@ -2049,7 +2062,7 @@
         <v>70</v>
       </c>
       <c r="CO3" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="CP3" s="23" t="s">
         <v>68</v>
@@ -2060,7 +2073,7 @@
       <c r="CR3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="CS3" s="24" t="s">
+      <c r="CS3" s="23" t="s">
         <v>71</v>
       </c>
       <c r="CT3" s="24" t="s">
@@ -2073,7 +2086,7 @@
         <v>74</v>
       </c>
       <c r="CW3" s="24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="CX3" s="24" t="s">
         <v>72</v>
@@ -2084,7 +2097,7 @@
       <c r="CZ3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="DA3" s="25" t="s">
+      <c r="DA3" s="24" t="s">
         <v>75</v>
       </c>
       <c r="DB3" s="25" t="s">
@@ -2097,7 +2110,7 @@
         <v>78</v>
       </c>
       <c r="DE3" s="25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="DF3" s="25" t="s">
         <v>76</v>
@@ -2108,686 +2121,694 @@
       <c r="DH3" s="25" t="s">
         <v>78</v>
       </c>
+      <c r="DI3" s="25" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" s="27" customFormat="true" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V4" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z4" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC4" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD4" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF4" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH4" s="28" t="s">
         <v>112</v>
       </c>
+      <c r="AH4" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AI4" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="AK4" s="28" t="s">
+      <c r="AJ4" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AK4" s="27" t="s">
         <v>116</v>
       </c>
+      <c r="AL4" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="AM4" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN4" s="28" t="s">
         <v>118</v>
       </c>
+      <c r="AN4" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="AO4" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP4" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="AQ4" s="28" t="s">
+      <c r="AP4" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AQ4" s="27" t="s">
         <v>122</v>
       </c>
+      <c r="AR4" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="AS4" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AT4" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AU4" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AV4" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AW4" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="AY4" s="27" t="s">
+      <c r="AX4" s="27" t="s">
         <v>129</v>
       </c>
+      <c r="AY4" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="AZ4" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA4" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BB4" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BC4" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="BD4" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="BE4" s="27" t="s">
+      <c r="BD4" s="27" t="s">
         <v>135</v>
       </c>
+      <c r="BE4" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="BF4" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BG4" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BH4" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI4" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BJ4" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BK4" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BL4" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BM4" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BN4" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BO4" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BP4" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ4" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BR4" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BS4" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BT4" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BU4" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BV4" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BW4" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BX4" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BY4" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BZ4" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CA4" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CB4" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CC4" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CD4" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CE4" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CF4" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CG4" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CH4" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CI4" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CJ4" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CK4" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CL4" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CM4" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CN4" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CO4" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CP4" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CQ4" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CR4" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CS4" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CT4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CU4" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CV4" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CW4" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CX4" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CY4" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CZ4" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DA4" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DB4" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="DC4" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DD4" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DE4" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DF4" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DG4" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DH4" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="DI4" s="27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P5" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Z5" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="AA5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="AB5" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="AC5" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="AD5" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="AE5" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="W5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z5" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA5" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC5" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE5" s="33" t="s">
-        <v>210</v>
-      </c>
       <c r="AF5" s="33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG5" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH5" s="34" t="s">
         <v>214</v>
       </c>
+      <c r="AH5" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="AI5" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ5" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK5" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="AL5" s="33" t="s">
+      <c r="AJ5" s="34" t="s">
         <v>218</v>
       </c>
+      <c r="AK5" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>220</v>
+      </c>
       <c r="AM5" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN5" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="AN5" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="AO5" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP5" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ5" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="AR5" s="33" t="s">
+      <c r="AP5" s="34" t="s">
         <v>224</v>
       </c>
+      <c r="AQ5" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR5" s="34" t="s">
+        <v>226</v>
+      </c>
       <c r="AS5" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT5" s="32" t="s">
-        <v>52</v>
+        <v>227</v>
+      </c>
+      <c r="AT5" s="33" t="s">
+        <v>228</v>
       </c>
       <c r="AU5" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV5" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AV5" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="AW5" s="33" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="AX5" s="33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AY5" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AZ5" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="AZ5" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="BA5" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB5" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="BB5" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="BC5" s="33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BD5" s="33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BE5" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BF5" s="33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BG5" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BH5" s="33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BI5" s="33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BJ5" s="33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BK5" s="33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BL5" s="33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BM5" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BN5" s="33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BO5" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BP5" s="33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BQ5" s="33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BR5" s="33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BS5" s="33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BT5" s="33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BU5" s="33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BV5" s="33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BW5" s="33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BX5" s="33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BY5" s="33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BZ5" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="CA5" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CB5" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="CC5" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="CD5" s="33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="CE5" s="33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="CF5" s="33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="CG5" s="33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="CH5" s="33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="CI5" s="33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="CJ5" s="33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="CK5" s="33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="CL5" s="33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CM5" s="33" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CN5" s="33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CO5" s="33" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CP5" s="33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="CQ5" s="33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CR5" s="33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="CS5" s="33" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CT5" s="33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CU5" s="33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CV5" s="33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CW5" s="33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="CX5" s="33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="CY5" s="33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="CZ5" s="33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="DA5" s="33" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="DB5" s="33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="DC5" s="33" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="DD5" s="33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="DE5" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="DF5" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="DG5" s="33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="DH5" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="DI5" s="33" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="35"/>
-      <c r="DA6" s="36"/>
       <c r="DB6" s="36"/>
       <c r="DC6" s="36"/>
       <c r="DD6" s="36"/>
@@ -2795,4022 +2816,4023 @@
       <c r="DF6" s="36"/>
       <c r="DG6" s="36"/>
       <c r="DH6" s="36"/>
+      <c r="DI6" s="36"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV7" s="2"/>
-      <c r="CY7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CZ7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV8" s="2"/>
-      <c r="CY8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CZ8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV9" s="2"/>
-      <c r="CY9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CZ9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV10" s="2"/>
-      <c r="CY10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CZ10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV11" s="2"/>
-      <c r="CY11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CZ11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV12" s="2"/>
-      <c r="CY12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CZ12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV13" s="2"/>
-      <c r="CY13" s="2"/>
+      <c r="CW13" s="2"/>
+      <c r="CZ13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV14" s="2"/>
-      <c r="CY14" s="2"/>
+      <c r="CW14" s="2"/>
+      <c r="CZ14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV15" s="2"/>
-      <c r="CY15" s="2"/>
+      <c r="CW15" s="2"/>
+      <c r="CZ15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV16" s="2"/>
-      <c r="CY16" s="2"/>
+      <c r="CW16" s="2"/>
+      <c r="CZ16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV17" s="2"/>
-      <c r="CY17" s="2"/>
+      <c r="CW17" s="2"/>
+      <c r="CZ17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV18" s="2"/>
-      <c r="CY18" s="2"/>
+      <c r="CW18" s="2"/>
+      <c r="CZ18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV19" s="2"/>
-      <c r="CY19" s="2"/>
+      <c r="CW19" s="2"/>
+      <c r="CZ19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV20" s="2"/>
-      <c r="CY20" s="2"/>
+      <c r="CW20" s="2"/>
+      <c r="CZ20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV21" s="2"/>
-      <c r="CY21" s="2"/>
+      <c r="CW21" s="2"/>
+      <c r="CZ21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV22" s="2"/>
-      <c r="CY22" s="2"/>
+      <c r="CW22" s="2"/>
+      <c r="CZ22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV23" s="2"/>
-      <c r="CY23" s="2"/>
+      <c r="CW23" s="2"/>
+      <c r="CZ23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV24" s="2"/>
-      <c r="CY24" s="2"/>
+      <c r="CW24" s="2"/>
+      <c r="CZ24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV25" s="2"/>
-      <c r="CY25" s="2"/>
+      <c r="CW25" s="2"/>
+      <c r="CZ25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV26" s="2"/>
-      <c r="CY26" s="2"/>
+      <c r="CW26" s="2"/>
+      <c r="CZ26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV27" s="2"/>
-      <c r="CY27" s="2"/>
+      <c r="CW27" s="2"/>
+      <c r="CZ27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV28" s="2"/>
-      <c r="CY28" s="2"/>
+      <c r="CW28" s="2"/>
+      <c r="CZ28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV29" s="2"/>
-      <c r="CY29" s="2"/>
+      <c r="CW29" s="2"/>
+      <c r="CZ29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV30" s="2"/>
-      <c r="CY30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CZ30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV31" s="2"/>
-      <c r="CY31" s="2"/>
+      <c r="CW31" s="2"/>
+      <c r="CZ31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV32" s="2"/>
-      <c r="CY32" s="2"/>
+      <c r="CW32" s="2"/>
+      <c r="CZ32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV33" s="2"/>
-      <c r="CY33" s="2"/>
+      <c r="CW33" s="2"/>
+      <c r="CZ33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV34" s="2"/>
-      <c r="CY34" s="2"/>
+      <c r="CW34" s="2"/>
+      <c r="CZ34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV35" s="2"/>
-      <c r="CY35" s="2"/>
+      <c r="CW35" s="2"/>
+      <c r="CZ35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV36" s="2"/>
-      <c r="CY36" s="2"/>
+      <c r="CW36" s="2"/>
+      <c r="CZ36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV37" s="2"/>
-      <c r="CY37" s="2"/>
+      <c r="CW37" s="2"/>
+      <c r="CZ37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV38" s="2"/>
-      <c r="CY38" s="2"/>
+      <c r="CW38" s="2"/>
+      <c r="CZ38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV39" s="2"/>
-      <c r="CY39" s="2"/>
+      <c r="CW39" s="2"/>
+      <c r="CZ39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV40" s="2"/>
-      <c r="CY40" s="2"/>
+      <c r="CW40" s="2"/>
+      <c r="CZ40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV41" s="2"/>
-      <c r="CY41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CZ41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV42" s="2"/>
-      <c r="CY42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CZ42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV43" s="2"/>
-      <c r="CY43" s="2"/>
+      <c r="CW43" s="2"/>
+      <c r="CZ43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV44" s="2"/>
-      <c r="CY44" s="2"/>
+      <c r="CW44" s="2"/>
+      <c r="CZ44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV45" s="2"/>
-      <c r="CY45" s="2"/>
+      <c r="CW45" s="2"/>
+      <c r="CZ45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV46" s="2"/>
-      <c r="CY46" s="2"/>
+      <c r="CW46" s="2"/>
+      <c r="CZ46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV47" s="2"/>
-      <c r="CY47" s="2"/>
+      <c r="CW47" s="2"/>
+      <c r="CZ47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV48" s="2"/>
-      <c r="CY48" s="2"/>
+      <c r="CW48" s="2"/>
+      <c r="CZ48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV49" s="2"/>
-      <c r="CY49" s="2"/>
+      <c r="CW49" s="2"/>
+      <c r="CZ49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV50" s="2"/>
-      <c r="CY50" s="2"/>
+      <c r="CW50" s="2"/>
+      <c r="CZ50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV51" s="2"/>
-      <c r="CY51" s="2"/>
+      <c r="CW51" s="2"/>
+      <c r="CZ51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV52" s="2"/>
-      <c r="CY52" s="2"/>
+      <c r="CW52" s="2"/>
+      <c r="CZ52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV53" s="2"/>
-      <c r="CY53" s="2"/>
+      <c r="CW53" s="2"/>
+      <c r="CZ53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV54" s="2"/>
-      <c r="CY54" s="2"/>
+      <c r="CW54" s="2"/>
+      <c r="CZ54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV55" s="2"/>
-      <c r="CY55" s="2"/>
+      <c r="CW55" s="2"/>
+      <c r="CZ55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV56" s="2"/>
-      <c r="CY56" s="2"/>
+      <c r="CW56" s="2"/>
+      <c r="CZ56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV57" s="2"/>
-      <c r="CY57" s="2"/>
+      <c r="CW57" s="2"/>
+      <c r="CZ57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV58" s="2"/>
-      <c r="CY58" s="2"/>
+      <c r="CW58" s="2"/>
+      <c r="CZ58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV59" s="2"/>
-      <c r="CY59" s="2"/>
+      <c r="CW59" s="2"/>
+      <c r="CZ59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV60" s="2"/>
-      <c r="CY60" s="2"/>
+      <c r="CW60" s="2"/>
+      <c r="CZ60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV61" s="2"/>
-      <c r="CY61" s="2"/>
+      <c r="CW61" s="2"/>
+      <c r="CZ61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV62" s="2"/>
-      <c r="CY62" s="2"/>
+      <c r="CW62" s="2"/>
+      <c r="CZ62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV63" s="2"/>
-      <c r="CY63" s="2"/>
+      <c r="CW63" s="2"/>
+      <c r="CZ63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV64" s="2"/>
-      <c r="CY64" s="2"/>
+      <c r="CW64" s="2"/>
+      <c r="CZ64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV65" s="2"/>
-      <c r="CY65" s="2"/>
+      <c r="CW65" s="2"/>
+      <c r="CZ65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV66" s="2"/>
-      <c r="CY66" s="2"/>
+      <c r="CW66" s="2"/>
+      <c r="CZ66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV67" s="2"/>
-      <c r="CY67" s="2"/>
+      <c r="CW67" s="2"/>
+      <c r="CZ67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV68" s="2"/>
-      <c r="CY68" s="2"/>
+      <c r="CW68" s="2"/>
+      <c r="CZ68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV69" s="2"/>
-      <c r="CY69" s="2"/>
+      <c r="CW69" s="2"/>
+      <c r="CZ69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV70" s="2"/>
-      <c r="CY70" s="2"/>
+      <c r="CW70" s="2"/>
+      <c r="CZ70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV71" s="2"/>
-      <c r="CY71" s="2"/>
+      <c r="CW71" s="2"/>
+      <c r="CZ71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV72" s="2"/>
-      <c r="CY72" s="2"/>
+      <c r="CW72" s="2"/>
+      <c r="CZ72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV73" s="2"/>
-      <c r="CY73" s="2"/>
+      <c r="CW73" s="2"/>
+      <c r="CZ73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV74" s="2"/>
-      <c r="CY74" s="2"/>
+      <c r="CW74" s="2"/>
+      <c r="CZ74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV75" s="2"/>
-      <c r="CY75" s="2"/>
+      <c r="CW75" s="2"/>
+      <c r="CZ75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV76" s="2"/>
-      <c r="CY76" s="2"/>
+      <c r="CW76" s="2"/>
+      <c r="CZ76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV77" s="2"/>
-      <c r="CY77" s="2"/>
+      <c r="CW77" s="2"/>
+      <c r="CZ77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV78" s="2"/>
-      <c r="CY78" s="2"/>
+      <c r="CW78" s="2"/>
+      <c r="CZ78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV79" s="2"/>
-      <c r="CY79" s="2"/>
+      <c r="CW79" s="2"/>
+      <c r="CZ79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV80" s="2"/>
-      <c r="CY80" s="2"/>
+      <c r="CW80" s="2"/>
+      <c r="CZ80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV81" s="2"/>
-      <c r="CY81" s="2"/>
+      <c r="CW81" s="2"/>
+      <c r="CZ81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV82" s="2"/>
-      <c r="CY82" s="2"/>
+      <c r="CW82" s="2"/>
+      <c r="CZ82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV83" s="2"/>
-      <c r="CY83" s="2"/>
+      <c r="CW83" s="2"/>
+      <c r="CZ83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV84" s="2"/>
-      <c r="CY84" s="2"/>
+      <c r="CW84" s="2"/>
+      <c r="CZ84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV85" s="2"/>
-      <c r="CY85" s="2"/>
+      <c r="CW85" s="2"/>
+      <c r="CZ85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV86" s="2"/>
-      <c r="CY86" s="2"/>
+      <c r="CW86" s="2"/>
+      <c r="CZ86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV87" s="2"/>
-      <c r="CY87" s="2"/>
+      <c r="CW87" s="2"/>
+      <c r="CZ87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV88" s="2"/>
-      <c r="CY88" s="2"/>
+      <c r="CW88" s="2"/>
+      <c r="CZ88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV89" s="2"/>
-      <c r="CY89" s="2"/>
+      <c r="CW89" s="2"/>
+      <c r="CZ89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV90" s="2"/>
-      <c r="CY90" s="2"/>
+      <c r="CW90" s="2"/>
+      <c r="CZ90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV91" s="2"/>
-      <c r="CY91" s="2"/>
+      <c r="CW91" s="2"/>
+      <c r="CZ91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV92" s="2"/>
-      <c r="CY92" s="2"/>
+      <c r="CW92" s="2"/>
+      <c r="CZ92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV93" s="2"/>
-      <c r="CY93" s="2"/>
+      <c r="CW93" s="2"/>
+      <c r="CZ93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV94" s="2"/>
-      <c r="CY94" s="2"/>
+      <c r="CW94" s="2"/>
+      <c r="CZ94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV95" s="2"/>
-      <c r="CY95" s="2"/>
+      <c r="CW95" s="2"/>
+      <c r="CZ95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV96" s="2"/>
-      <c r="CY96" s="2"/>
+      <c r="CW96" s="2"/>
+      <c r="CZ96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV97" s="2"/>
-      <c r="CY97" s="2"/>
+      <c r="CW97" s="2"/>
+      <c r="CZ97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV98" s="2"/>
-      <c r="CY98" s="2"/>
+      <c r="CW98" s="2"/>
+      <c r="CZ98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV99" s="2"/>
-      <c r="CY99" s="2"/>
+      <c r="CW99" s="2"/>
+      <c r="CZ99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV100" s="2"/>
-      <c r="CY100" s="2"/>
+      <c r="CW100" s="2"/>
+      <c r="CZ100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV101" s="2"/>
-      <c r="CY101" s="2"/>
+      <c r="CW101" s="2"/>
+      <c r="CZ101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV102" s="2"/>
-      <c r="CY102" s="2"/>
+      <c r="CW102" s="2"/>
+      <c r="CZ102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV103" s="2"/>
-      <c r="CY103" s="2"/>
+      <c r="CW103" s="2"/>
+      <c r="CZ103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV104" s="2"/>
-      <c r="CY104" s="2"/>
+      <c r="CW104" s="2"/>
+      <c r="CZ104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV105" s="2"/>
-      <c r="CY105" s="2"/>
+      <c r="CW105" s="2"/>
+      <c r="CZ105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV106" s="2"/>
-      <c r="CY106" s="2"/>
+      <c r="CW106" s="2"/>
+      <c r="CZ106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV107" s="2"/>
-      <c r="CY107" s="2"/>
+      <c r="CW107" s="2"/>
+      <c r="CZ107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV108" s="2"/>
-      <c r="CY108" s="2"/>
+      <c r="CW108" s="2"/>
+      <c r="CZ108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV109" s="2"/>
-      <c r="CY109" s="2"/>
+      <c r="CW109" s="2"/>
+      <c r="CZ109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV110" s="2"/>
-      <c r="CY110" s="2"/>
+      <c r="CW110" s="2"/>
+      <c r="CZ110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV111" s="2"/>
-      <c r="CY111" s="2"/>
+      <c r="CW111" s="2"/>
+      <c r="CZ111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV112" s="2"/>
-      <c r="CY112" s="2"/>
+      <c r="CW112" s="2"/>
+      <c r="CZ112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV113" s="2"/>
-      <c r="CY113" s="2"/>
+      <c r="CW113" s="2"/>
+      <c r="CZ113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV114" s="2"/>
-      <c r="CY114" s="2"/>
+      <c r="CW114" s="2"/>
+      <c r="CZ114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV115" s="2"/>
-      <c r="CY115" s="2"/>
+      <c r="CW115" s="2"/>
+      <c r="CZ115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV116" s="2"/>
-      <c r="CY116" s="2"/>
+      <c r="CW116" s="2"/>
+      <c r="CZ116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV117" s="2"/>
-      <c r="CY117" s="2"/>
+      <c r="CW117" s="2"/>
+      <c r="CZ117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV118" s="2"/>
-      <c r="CY118" s="2"/>
+      <c r="CW118" s="2"/>
+      <c r="CZ118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV119" s="2"/>
-      <c r="CY119" s="2"/>
+      <c r="CW119" s="2"/>
+      <c r="CZ119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV120" s="2"/>
-      <c r="CY120" s="2"/>
+      <c r="CW120" s="2"/>
+      <c r="CZ120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV121" s="2"/>
-      <c r="CY121" s="2"/>
+      <c r="CW121" s="2"/>
+      <c r="CZ121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV122" s="2"/>
-      <c r="CY122" s="2"/>
+      <c r="CW122" s="2"/>
+      <c r="CZ122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV123" s="2"/>
-      <c r="CY123" s="2"/>
+      <c r="CW123" s="2"/>
+      <c r="CZ123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV124" s="2"/>
-      <c r="CY124" s="2"/>
+      <c r="CW124" s="2"/>
+      <c r="CZ124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV125" s="2"/>
-      <c r="CY125" s="2"/>
+      <c r="CW125" s="2"/>
+      <c r="CZ125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV126" s="2"/>
-      <c r="CY126" s="2"/>
+      <c r="CW126" s="2"/>
+      <c r="CZ126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV127" s="2"/>
-      <c r="CY127" s="2"/>
+      <c r="CW127" s="2"/>
+      <c r="CZ127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV128" s="2"/>
-      <c r="CY128" s="2"/>
+      <c r="CW128" s="2"/>
+      <c r="CZ128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV129" s="2"/>
-      <c r="CY129" s="2"/>
+      <c r="CW129" s="2"/>
+      <c r="CZ129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV130" s="2"/>
-      <c r="CY130" s="2"/>
+      <c r="CW130" s="2"/>
+      <c r="CZ130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV131" s="2"/>
-      <c r="CY131" s="2"/>
+      <c r="CW131" s="2"/>
+      <c r="CZ131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV132" s="2"/>
-      <c r="CY132" s="2"/>
+      <c r="CW132" s="2"/>
+      <c r="CZ132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV133" s="2"/>
-      <c r="CY133" s="2"/>
+      <c r="CW133" s="2"/>
+      <c r="CZ133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV134" s="2"/>
-      <c r="CY134" s="2"/>
+      <c r="CW134" s="2"/>
+      <c r="CZ134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV135" s="2"/>
-      <c r="CY135" s="2"/>
+      <c r="CW135" s="2"/>
+      <c r="CZ135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV136" s="2"/>
-      <c r="CY136" s="2"/>
+      <c r="CW136" s="2"/>
+      <c r="CZ136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV137" s="2"/>
-      <c r="CY137" s="2"/>
+      <c r="CW137" s="2"/>
+      <c r="CZ137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV138" s="2"/>
-      <c r="CY138" s="2"/>
+      <c r="CW138" s="2"/>
+      <c r="CZ138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV139" s="2"/>
-      <c r="CY139" s="2"/>
+      <c r="CW139" s="2"/>
+      <c r="CZ139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV140" s="2"/>
-      <c r="CY140" s="2"/>
+      <c r="CW140" s="2"/>
+      <c r="CZ140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV141" s="2"/>
-      <c r="CY141" s="2"/>
+      <c r="CW141" s="2"/>
+      <c r="CZ141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV142" s="2"/>
-      <c r="CY142" s="2"/>
+      <c r="CW142" s="2"/>
+      <c r="CZ142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV143" s="2"/>
-      <c r="CY143" s="2"/>
+      <c r="CW143" s="2"/>
+      <c r="CZ143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV144" s="2"/>
-      <c r="CY144" s="2"/>
+      <c r="CW144" s="2"/>
+      <c r="CZ144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV145" s="2"/>
-      <c r="CY145" s="2"/>
+      <c r="CW145" s="2"/>
+      <c r="CZ145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV146" s="2"/>
-      <c r="CY146" s="2"/>
+      <c r="CW146" s="2"/>
+      <c r="CZ146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV147" s="2"/>
-      <c r="CY147" s="2"/>
+      <c r="CW147" s="2"/>
+      <c r="CZ147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV148" s="2"/>
-      <c r="CY148" s="2"/>
+      <c r="CW148" s="2"/>
+      <c r="CZ148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV149" s="2"/>
-      <c r="CY149" s="2"/>
+      <c r="CW149" s="2"/>
+      <c r="CZ149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV150" s="2"/>
-      <c r="CY150" s="2"/>
+      <c r="CW150" s="2"/>
+      <c r="CZ150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV151" s="2"/>
-      <c r="CY151" s="2"/>
+      <c r="CW151" s="2"/>
+      <c r="CZ151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV152" s="2"/>
-      <c r="CY152" s="2"/>
+      <c r="CW152" s="2"/>
+      <c r="CZ152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV153" s="2"/>
-      <c r="CY153" s="2"/>
+      <c r="CW153" s="2"/>
+      <c r="CZ153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV154" s="2"/>
-      <c r="CY154" s="2"/>
+      <c r="CW154" s="2"/>
+      <c r="CZ154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV155" s="2"/>
-      <c r="CY155" s="2"/>
+      <c r="CW155" s="2"/>
+      <c r="CZ155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV156" s="2"/>
-      <c r="CY156" s="2"/>
+      <c r="CW156" s="2"/>
+      <c r="CZ156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV157" s="2"/>
-      <c r="CY157" s="2"/>
+      <c r="CW157" s="2"/>
+      <c r="CZ157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV158" s="2"/>
-      <c r="CY158" s="2"/>
+      <c r="CW158" s="2"/>
+      <c r="CZ158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV159" s="2"/>
-      <c r="CY159" s="2"/>
+      <c r="CW159" s="2"/>
+      <c r="CZ159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV160" s="2"/>
-      <c r="CY160" s="2"/>
+      <c r="CW160" s="2"/>
+      <c r="CZ160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV161" s="2"/>
-      <c r="CY161" s="2"/>
+      <c r="CW161" s="2"/>
+      <c r="CZ161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV162" s="2"/>
-      <c r="CY162" s="2"/>
+      <c r="CW162" s="2"/>
+      <c r="CZ162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV163" s="2"/>
-      <c r="CY163" s="2"/>
+      <c r="CW163" s="2"/>
+      <c r="CZ163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV164" s="2"/>
-      <c r="CY164" s="2"/>
+      <c r="CW164" s="2"/>
+      <c r="CZ164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV165" s="2"/>
-      <c r="CY165" s="2"/>
+      <c r="CW165" s="2"/>
+      <c r="CZ165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV166" s="2"/>
-      <c r="CY166" s="2"/>
+      <c r="CW166" s="2"/>
+      <c r="CZ166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV167" s="2"/>
-      <c r="CY167" s="2"/>
+      <c r="CW167" s="2"/>
+      <c r="CZ167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV168" s="2"/>
-      <c r="CY168" s="2"/>
+      <c r="CW168" s="2"/>
+      <c r="CZ168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV169" s="2"/>
-      <c r="CY169" s="2"/>
+      <c r="CW169" s="2"/>
+      <c r="CZ169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV170" s="2"/>
-      <c r="CY170" s="2"/>
+      <c r="CW170" s="2"/>
+      <c r="CZ170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV171" s="2"/>
-      <c r="CY171" s="2"/>
+      <c r="CW171" s="2"/>
+      <c r="CZ171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV172" s="2"/>
-      <c r="CY172" s="2"/>
+      <c r="CW172" s="2"/>
+      <c r="CZ172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV173" s="2"/>
-      <c r="CY173" s="2"/>
+      <c r="CW173" s="2"/>
+      <c r="CZ173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV174" s="2"/>
-      <c r="CY174" s="2"/>
+      <c r="CW174" s="2"/>
+      <c r="CZ174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV175" s="2"/>
-      <c r="CY175" s="2"/>
+      <c r="CW175" s="2"/>
+      <c r="CZ175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV176" s="2"/>
-      <c r="CY176" s="2"/>
+      <c r="CW176" s="2"/>
+      <c r="CZ176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV177" s="2"/>
-      <c r="CY177" s="2"/>
+      <c r="CW177" s="2"/>
+      <c r="CZ177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV178" s="2"/>
-      <c r="CY178" s="2"/>
+      <c r="CW178" s="2"/>
+      <c r="CZ178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV179" s="2"/>
-      <c r="CY179" s="2"/>
+      <c r="CW179" s="2"/>
+      <c r="CZ179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV180" s="2"/>
-      <c r="CY180" s="2"/>
+      <c r="CW180" s="2"/>
+      <c r="CZ180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV181" s="2"/>
-      <c r="CY181" s="2"/>
+      <c r="CW181" s="2"/>
+      <c r="CZ181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV182" s="2"/>
-      <c r="CY182" s="2"/>
+      <c r="CW182" s="2"/>
+      <c r="CZ182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV183" s="2"/>
-      <c r="CY183" s="2"/>
+      <c r="CW183" s="2"/>
+      <c r="CZ183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV184" s="2"/>
-      <c r="CY184" s="2"/>
+      <c r="CW184" s="2"/>
+      <c r="CZ184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV185" s="2"/>
-      <c r="CY185" s="2"/>
+      <c r="CW185" s="2"/>
+      <c r="CZ185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV186" s="2"/>
-      <c r="CY186" s="2"/>
+      <c r="CW186" s="2"/>
+      <c r="CZ186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV187" s="2"/>
-      <c r="CY187" s="2"/>
+      <c r="CW187" s="2"/>
+      <c r="CZ187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV188" s="2"/>
-      <c r="CY188" s="2"/>
+      <c r="CW188" s="2"/>
+      <c r="CZ188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV189" s="2"/>
-      <c r="CY189" s="2"/>
+      <c r="CW189" s="2"/>
+      <c r="CZ189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV190" s="2"/>
-      <c r="CY190" s="2"/>
+      <c r="CW190" s="2"/>
+      <c r="CZ190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV191" s="2"/>
-      <c r="CY191" s="2"/>
+      <c r="CW191" s="2"/>
+      <c r="CZ191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV192" s="2"/>
-      <c r="CY192" s="2"/>
+      <c r="CW192" s="2"/>
+      <c r="CZ192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV193" s="2"/>
-      <c r="CY193" s="2"/>
+      <c r="CW193" s="2"/>
+      <c r="CZ193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV194" s="2"/>
-      <c r="CY194" s="2"/>
+      <c r="CW194" s="2"/>
+      <c r="CZ194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV195" s="2"/>
-      <c r="CY195" s="2"/>
+      <c r="CW195" s="2"/>
+      <c r="CZ195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV196" s="2"/>
-      <c r="CY196" s="2"/>
+      <c r="CW196" s="2"/>
+      <c r="CZ196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV197" s="2"/>
-      <c r="CY197" s="2"/>
+      <c r="CW197" s="2"/>
+      <c r="CZ197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV198" s="2"/>
-      <c r="CY198" s="2"/>
+      <c r="CW198" s="2"/>
+      <c r="CZ198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV199" s="2"/>
-      <c r="CY199" s="2"/>
+      <c r="CW199" s="2"/>
+      <c r="CZ199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV200" s="2"/>
-      <c r="CY200" s="2"/>
+      <c r="CW200" s="2"/>
+      <c r="CZ200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV201" s="2"/>
-      <c r="CY201" s="2"/>
+      <c r="CW201" s="2"/>
+      <c r="CZ201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV202" s="2"/>
-      <c r="CY202" s="2"/>
+      <c r="CW202" s="2"/>
+      <c r="CZ202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV203" s="2"/>
-      <c r="CY203" s="2"/>
+      <c r="CW203" s="2"/>
+      <c r="CZ203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV204" s="2"/>
-      <c r="CY204" s="2"/>
+      <c r="CW204" s="2"/>
+      <c r="CZ204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV205" s="2"/>
-      <c r="CY205" s="2"/>
+      <c r="CW205" s="2"/>
+      <c r="CZ205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV206" s="2"/>
-      <c r="CY206" s="2"/>
+      <c r="CW206" s="2"/>
+      <c r="CZ206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV207" s="2"/>
-      <c r="CY207" s="2"/>
+      <c r="CW207" s="2"/>
+      <c r="CZ207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV208" s="2"/>
-      <c r="CY208" s="2"/>
+      <c r="CW208" s="2"/>
+      <c r="CZ208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV209" s="2"/>
-      <c r="CY209" s="2"/>
+      <c r="CW209" s="2"/>
+      <c r="CZ209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV210" s="2"/>
-      <c r="CY210" s="2"/>
+      <c r="CW210" s="2"/>
+      <c r="CZ210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV211" s="2"/>
-      <c r="CY211" s="2"/>
+      <c r="CW211" s="2"/>
+      <c r="CZ211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV212" s="2"/>
-      <c r="CY212" s="2"/>
+      <c r="CW212" s="2"/>
+      <c r="CZ212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV213" s="2"/>
-      <c r="CY213" s="2"/>
+      <c r="CW213" s="2"/>
+      <c r="CZ213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV214" s="2"/>
-      <c r="CY214" s="2"/>
+      <c r="CW214" s="2"/>
+      <c r="CZ214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV215" s="2"/>
-      <c r="CY215" s="2"/>
+      <c r="CW215" s="2"/>
+      <c r="CZ215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV216" s="2"/>
-      <c r="CY216" s="2"/>
+      <c r="CW216" s="2"/>
+      <c r="CZ216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV217" s="2"/>
-      <c r="CY217" s="2"/>
+      <c r="CW217" s="2"/>
+      <c r="CZ217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV218" s="2"/>
-      <c r="CY218" s="2"/>
+      <c r="CW218" s="2"/>
+      <c r="CZ218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV219" s="2"/>
-      <c r="CY219" s="2"/>
+      <c r="CW219" s="2"/>
+      <c r="CZ219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV220" s="2"/>
-      <c r="CY220" s="2"/>
+      <c r="CW220" s="2"/>
+      <c r="CZ220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV221" s="2"/>
-      <c r="CY221" s="2"/>
+      <c r="CW221" s="2"/>
+      <c r="CZ221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV222" s="2"/>
-      <c r="CY222" s="2"/>
+      <c r="CW222" s="2"/>
+      <c r="CZ222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV223" s="2"/>
-      <c r="CY223" s="2"/>
+      <c r="CW223" s="2"/>
+      <c r="CZ223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV224" s="2"/>
-      <c r="CY224" s="2"/>
+      <c r="CW224" s="2"/>
+      <c r="CZ224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV225" s="2"/>
-      <c r="CY225" s="2"/>
+      <c r="CW225" s="2"/>
+      <c r="CZ225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV226" s="2"/>
-      <c r="CY226" s="2"/>
+      <c r="CW226" s="2"/>
+      <c r="CZ226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV227" s="2"/>
-      <c r="CY227" s="2"/>
+      <c r="CW227" s="2"/>
+      <c r="CZ227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV228" s="2"/>
-      <c r="CY228" s="2"/>
+      <c r="CW228" s="2"/>
+      <c r="CZ228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV229" s="2"/>
-      <c r="CY229" s="2"/>
+      <c r="CW229" s="2"/>
+      <c r="CZ229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV230" s="2"/>
-      <c r="CY230" s="2"/>
+      <c r="CW230" s="2"/>
+      <c r="CZ230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV231" s="2"/>
-      <c r="CY231" s="2"/>
+      <c r="CW231" s="2"/>
+      <c r="CZ231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV232" s="2"/>
-      <c r="CY232" s="2"/>
+      <c r="CW232" s="2"/>
+      <c r="CZ232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV233" s="2"/>
-      <c r="CY233" s="2"/>
+      <c r="CW233" s="2"/>
+      <c r="CZ233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV234" s="2"/>
-      <c r="CY234" s="2"/>
+      <c r="CW234" s="2"/>
+      <c r="CZ234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV235" s="2"/>
-      <c r="CY235" s="2"/>
+      <c r="CW235" s="2"/>
+      <c r="CZ235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV236" s="2"/>
-      <c r="CY236" s="2"/>
+      <c r="CW236" s="2"/>
+      <c r="CZ236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV237" s="2"/>
-      <c r="CY237" s="2"/>
+      <c r="CW237" s="2"/>
+      <c r="CZ237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV238" s="2"/>
-      <c r="CY238" s="2"/>
+      <c r="CW238" s="2"/>
+      <c r="CZ238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV239" s="2"/>
-      <c r="CY239" s="2"/>
+      <c r="CW239" s="2"/>
+      <c r="CZ239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV240" s="2"/>
-      <c r="CY240" s="2"/>
+      <c r="CW240" s="2"/>
+      <c r="CZ240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV241" s="2"/>
-      <c r="CY241" s="2"/>
+      <c r="CW241" s="2"/>
+      <c r="CZ241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV242" s="2"/>
-      <c r="CY242" s="2"/>
+      <c r="CW242" s="2"/>
+      <c r="CZ242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV243" s="2"/>
-      <c r="CY243" s="2"/>
+      <c r="CW243" s="2"/>
+      <c r="CZ243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV244" s="2"/>
-      <c r="CY244" s="2"/>
+      <c r="CW244" s="2"/>
+      <c r="CZ244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV245" s="2"/>
-      <c r="CY245" s="2"/>
+      <c r="CW245" s="2"/>
+      <c r="CZ245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV246" s="2"/>
-      <c r="CY246" s="2"/>
+      <c r="CW246" s="2"/>
+      <c r="CZ246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV247" s="2"/>
-      <c r="CY247" s="2"/>
+      <c r="CW247" s="2"/>
+      <c r="CZ247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV248" s="2"/>
-      <c r="CY248" s="2"/>
+      <c r="CW248" s="2"/>
+      <c r="CZ248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV249" s="2"/>
-      <c r="CY249" s="2"/>
+      <c r="CW249" s="2"/>
+      <c r="CZ249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV250" s="2"/>
-      <c r="CY250" s="2"/>
+      <c r="CW250" s="2"/>
+      <c r="CZ250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV251" s="2"/>
-      <c r="CY251" s="2"/>
+      <c r="CW251" s="2"/>
+      <c r="CZ251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV252" s="2"/>
-      <c r="CY252" s="2"/>
+      <c r="CW252" s="2"/>
+      <c r="CZ252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV253" s="2"/>
-      <c r="CY253" s="2"/>
+      <c r="CW253" s="2"/>
+      <c r="CZ253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV254" s="2"/>
-      <c r="CY254" s="2"/>
+      <c r="CW254" s="2"/>
+      <c r="CZ254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV255" s="2"/>
-      <c r="CY255" s="2"/>
+      <c r="CW255" s="2"/>
+      <c r="CZ255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV256" s="2"/>
-      <c r="CY256" s="2"/>
+      <c r="CW256" s="2"/>
+      <c r="CZ256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV257" s="2"/>
-      <c r="CY257" s="2"/>
+      <c r="CW257" s="2"/>
+      <c r="CZ257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV258" s="2"/>
-      <c r="CY258" s="2"/>
+      <c r="CW258" s="2"/>
+      <c r="CZ258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV259" s="2"/>
-      <c r="CY259" s="2"/>
+      <c r="CW259" s="2"/>
+      <c r="CZ259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV260" s="2"/>
-      <c r="CY260" s="2"/>
+      <c r="CW260" s="2"/>
+      <c r="CZ260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV261" s="2"/>
-      <c r="CY261" s="2"/>
+      <c r="CW261" s="2"/>
+      <c r="CZ261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV262" s="2"/>
-      <c r="CY262" s="2"/>
+      <c r="CW262" s="2"/>
+      <c r="CZ262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV263" s="2"/>
-      <c r="CY263" s="2"/>
+      <c r="CW263" s="2"/>
+      <c r="CZ263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV264" s="2"/>
-      <c r="CY264" s="2"/>
+      <c r="CW264" s="2"/>
+      <c r="CZ264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV265" s="2"/>
-      <c r="CY265" s="2"/>
+      <c r="CW265" s="2"/>
+      <c r="CZ265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV266" s="2"/>
-      <c r="CY266" s="2"/>
+      <c r="CW266" s="2"/>
+      <c r="CZ266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV267" s="2"/>
-      <c r="CY267" s="2"/>
+      <c r="CW267" s="2"/>
+      <c r="CZ267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV268" s="2"/>
-      <c r="CY268" s="2"/>
+      <c r="CW268" s="2"/>
+      <c r="CZ268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV269" s="2"/>
-      <c r="CY269" s="2"/>
+      <c r="CW269" s="2"/>
+      <c r="CZ269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV270" s="2"/>
-      <c r="CY270" s="2"/>
+      <c r="CW270" s="2"/>
+      <c r="CZ270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV271" s="2"/>
-      <c r="CY271" s="2"/>
+      <c r="CW271" s="2"/>
+      <c r="CZ271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV272" s="2"/>
-      <c r="CY272" s="2"/>
+      <c r="CW272" s="2"/>
+      <c r="CZ272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV273" s="2"/>
-      <c r="CY273" s="2"/>
+      <c r="CW273" s="2"/>
+      <c r="CZ273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV274" s="2"/>
-      <c r="CY274" s="2"/>
+      <c r="CW274" s="2"/>
+      <c r="CZ274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV275" s="2"/>
-      <c r="CY275" s="2"/>
+      <c r="CW275" s="2"/>
+      <c r="CZ275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV276" s="2"/>
-      <c r="CY276" s="2"/>
+      <c r="CW276" s="2"/>
+      <c r="CZ276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV277" s="2"/>
-      <c r="CY277" s="2"/>
+      <c r="CW277" s="2"/>
+      <c r="CZ277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV278" s="2"/>
-      <c r="CY278" s="2"/>
+      <c r="CW278" s="2"/>
+      <c r="CZ278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV279" s="2"/>
-      <c r="CY279" s="2"/>
+      <c r="CW279" s="2"/>
+      <c r="CZ279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV280" s="2"/>
-      <c r="CY280" s="2"/>
+      <c r="CW280" s="2"/>
+      <c r="CZ280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV281" s="2"/>
-      <c r="CY281" s="2"/>
+      <c r="CW281" s="2"/>
+      <c r="CZ281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV282" s="2"/>
-      <c r="CY282" s="2"/>
+      <c r="CW282" s="2"/>
+      <c r="CZ282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV283" s="2"/>
-      <c r="CY283" s="2"/>
+      <c r="CW283" s="2"/>
+      <c r="CZ283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV284" s="2"/>
-      <c r="CY284" s="2"/>
+      <c r="CW284" s="2"/>
+      <c r="CZ284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV285" s="2"/>
-      <c r="CY285" s="2"/>
+      <c r="CW285" s="2"/>
+      <c r="CZ285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV286" s="2"/>
-      <c r="CY286" s="2"/>
+      <c r="CW286" s="2"/>
+      <c r="CZ286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV287" s="2"/>
-      <c r="CY287" s="2"/>
+      <c r="CW287" s="2"/>
+      <c r="CZ287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV288" s="2"/>
-      <c r="CY288" s="2"/>
+      <c r="CW288" s="2"/>
+      <c r="CZ288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV289" s="2"/>
-      <c r="CY289" s="2"/>
+      <c r="CW289" s="2"/>
+      <c r="CZ289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV290" s="2"/>
-      <c r="CY290" s="2"/>
+      <c r="CW290" s="2"/>
+      <c r="CZ290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV291" s="2"/>
-      <c r="CY291" s="2"/>
+      <c r="CW291" s="2"/>
+      <c r="CZ291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV292" s="2"/>
-      <c r="CY292" s="2"/>
+      <c r="CW292" s="2"/>
+      <c r="CZ292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV293" s="2"/>
-      <c r="CY293" s="2"/>
+      <c r="CW293" s="2"/>
+      <c r="CZ293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV294" s="2"/>
-      <c r="CY294" s="2"/>
+      <c r="CW294" s="2"/>
+      <c r="CZ294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV295" s="2"/>
-      <c r="CY295" s="2"/>
+      <c r="CW295" s="2"/>
+      <c r="CZ295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV296" s="2"/>
-      <c r="CY296" s="2"/>
+      <c r="CW296" s="2"/>
+      <c r="CZ296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV297" s="2"/>
-      <c r="CY297" s="2"/>
+      <c r="CW297" s="2"/>
+      <c r="CZ297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV298" s="2"/>
-      <c r="CY298" s="2"/>
+      <c r="CW298" s="2"/>
+      <c r="CZ298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV299" s="2"/>
-      <c r="CY299" s="2"/>
+      <c r="CW299" s="2"/>
+      <c r="CZ299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV300" s="2"/>
-      <c r="CY300" s="2"/>
+      <c r="CW300" s="2"/>
+      <c r="CZ300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV301" s="2"/>
-      <c r="CY301" s="2"/>
+      <c r="CW301" s="2"/>
+      <c r="CZ301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV302" s="2"/>
-      <c r="CY302" s="2"/>
+      <c r="CW302" s="2"/>
+      <c r="CZ302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV303" s="2"/>
-      <c r="CY303" s="2"/>
+      <c r="CW303" s="2"/>
+      <c r="CZ303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV304" s="2"/>
-      <c r="CY304" s="2"/>
+      <c r="CW304" s="2"/>
+      <c r="CZ304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV305" s="2"/>
-      <c r="CY305" s="2"/>
+      <c r="CW305" s="2"/>
+      <c r="CZ305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV306" s="2"/>
-      <c r="CY306" s="2"/>
+      <c r="CW306" s="2"/>
+      <c r="CZ306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV307" s="2"/>
-      <c r="CY307" s="2"/>
+      <c r="CW307" s="2"/>
+      <c r="CZ307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV308" s="2"/>
-      <c r="CY308" s="2"/>
+      <c r="CW308" s="2"/>
+      <c r="CZ308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV309" s="2"/>
-      <c r="CY309" s="2"/>
+      <c r="CW309" s="2"/>
+      <c r="CZ309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV310" s="2"/>
-      <c r="CY310" s="2"/>
+      <c r="CW310" s="2"/>
+      <c r="CZ310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV311" s="2"/>
-      <c r="CY311" s="2"/>
+      <c r="CW311" s="2"/>
+      <c r="CZ311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV312" s="2"/>
-      <c r="CY312" s="2"/>
+      <c r="CW312" s="2"/>
+      <c r="CZ312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV313" s="2"/>
-      <c r="CY313" s="2"/>
+      <c r="CW313" s="2"/>
+      <c r="CZ313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV314" s="2"/>
-      <c r="CY314" s="2"/>
+      <c r="CW314" s="2"/>
+      <c r="CZ314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV315" s="2"/>
-      <c r="CY315" s="2"/>
+      <c r="CW315" s="2"/>
+      <c r="CZ315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV316" s="2"/>
-      <c r="CY316" s="2"/>
+      <c r="CW316" s="2"/>
+      <c r="CZ316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV317" s="2"/>
-      <c r="CY317" s="2"/>
+      <c r="CW317" s="2"/>
+      <c r="CZ317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV318" s="2"/>
-      <c r="CY318" s="2"/>
+      <c r="CW318" s="2"/>
+      <c r="CZ318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV319" s="2"/>
-      <c r="CY319" s="2"/>
+      <c r="CW319" s="2"/>
+      <c r="CZ319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV320" s="2"/>
-      <c r="CY320" s="2"/>
+      <c r="CW320" s="2"/>
+      <c r="CZ320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV321" s="2"/>
-      <c r="CY321" s="2"/>
+      <c r="CW321" s="2"/>
+      <c r="CZ321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV322" s="2"/>
-      <c r="CY322" s="2"/>
+      <c r="CW322" s="2"/>
+      <c r="CZ322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV323" s="2"/>
-      <c r="CY323" s="2"/>
+      <c r="CW323" s="2"/>
+      <c r="CZ323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV324" s="2"/>
-      <c r="CY324" s="2"/>
+      <c r="CW324" s="2"/>
+      <c r="CZ324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV325" s="2"/>
-      <c r="CY325" s="2"/>
+      <c r="CW325" s="2"/>
+      <c r="CZ325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV326" s="2"/>
-      <c r="CY326" s="2"/>
+      <c r="CW326" s="2"/>
+      <c r="CZ326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV327" s="2"/>
-      <c r="CY327" s="2"/>
+      <c r="CW327" s="2"/>
+      <c r="CZ327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV328" s="2"/>
-      <c r="CY328" s="2"/>
+      <c r="CW328" s="2"/>
+      <c r="CZ328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV329" s="2"/>
-      <c r="CY329" s="2"/>
+      <c r="CW329" s="2"/>
+      <c r="CZ329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV330" s="2"/>
-      <c r="CY330" s="2"/>
+      <c r="CW330" s="2"/>
+      <c r="CZ330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV331" s="2"/>
-      <c r="CY331" s="2"/>
+      <c r="CW331" s="2"/>
+      <c r="CZ331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV332" s="2"/>
-      <c r="CY332" s="2"/>
+      <c r="CW332" s="2"/>
+      <c r="CZ332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV333" s="2"/>
-      <c r="CY333" s="2"/>
+      <c r="CW333" s="2"/>
+      <c r="CZ333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV334" s="2"/>
-      <c r="CY334" s="2"/>
+      <c r="CW334" s="2"/>
+      <c r="CZ334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV335" s="2"/>
-      <c r="CY335" s="2"/>
+      <c r="CW335" s="2"/>
+      <c r="CZ335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV336" s="2"/>
-      <c r="CY336" s="2"/>
+      <c r="CW336" s="2"/>
+      <c r="CZ336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV337" s="2"/>
-      <c r="CY337" s="2"/>
+      <c r="CW337" s="2"/>
+      <c r="CZ337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV338" s="2"/>
-      <c r="CY338" s="2"/>
+      <c r="CW338" s="2"/>
+      <c r="CZ338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV339" s="2"/>
-      <c r="CY339" s="2"/>
+      <c r="CW339" s="2"/>
+      <c r="CZ339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV340" s="2"/>
-      <c r="CY340" s="2"/>
+      <c r="CW340" s="2"/>
+      <c r="CZ340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV341" s="2"/>
-      <c r="CY341" s="2"/>
+      <c r="CW341" s="2"/>
+      <c r="CZ341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV342" s="2"/>
-      <c r="CY342" s="2"/>
+      <c r="CW342" s="2"/>
+      <c r="CZ342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV343" s="2"/>
-      <c r="CY343" s="2"/>
+      <c r="CW343" s="2"/>
+      <c r="CZ343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV344" s="2"/>
-      <c r="CY344" s="2"/>
+      <c r="CW344" s="2"/>
+      <c r="CZ344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV345" s="2"/>
-      <c r="CY345" s="2"/>
+      <c r="CW345" s="2"/>
+      <c r="CZ345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV346" s="2"/>
-      <c r="CY346" s="2"/>
+      <c r="CW346" s="2"/>
+      <c r="CZ346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV347" s="2"/>
-      <c r="CY347" s="2"/>
+      <c r="CW347" s="2"/>
+      <c r="CZ347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV348" s="2"/>
-      <c r="CY348" s="2"/>
+      <c r="CW348" s="2"/>
+      <c r="CZ348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV349" s="2"/>
-      <c r="CY349" s="2"/>
+      <c r="CW349" s="2"/>
+      <c r="CZ349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV350" s="2"/>
-      <c r="CY350" s="2"/>
+      <c r="CW350" s="2"/>
+      <c r="CZ350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV351" s="2"/>
-      <c r="CY351" s="2"/>
+      <c r="CW351" s="2"/>
+      <c r="CZ351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV352" s="2"/>
-      <c r="CY352" s="2"/>
+      <c r="CW352" s="2"/>
+      <c r="CZ352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV353" s="2"/>
-      <c r="CY353" s="2"/>
+      <c r="CW353" s="2"/>
+      <c r="CZ353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV354" s="2"/>
-      <c r="CY354" s="2"/>
+      <c r="CW354" s="2"/>
+      <c r="CZ354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV355" s="2"/>
-      <c r="CY355" s="2"/>
+      <c r="CW355" s="2"/>
+      <c r="CZ355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV356" s="2"/>
-      <c r="CY356" s="2"/>
+      <c r="CW356" s="2"/>
+      <c r="CZ356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV357" s="2"/>
-      <c r="CY357" s="2"/>
+      <c r="CW357" s="2"/>
+      <c r="CZ357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV358" s="2"/>
-      <c r="CY358" s="2"/>
+      <c r="CW358" s="2"/>
+      <c r="CZ358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV359" s="2"/>
-      <c r="CY359" s="2"/>
+      <c r="CW359" s="2"/>
+      <c r="CZ359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV360" s="2"/>
-      <c r="CY360" s="2"/>
+      <c r="CW360" s="2"/>
+      <c r="CZ360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV361" s="2"/>
-      <c r="CY361" s="2"/>
+      <c r="CW361" s="2"/>
+      <c r="CZ361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV362" s="2"/>
-      <c r="CY362" s="2"/>
+      <c r="CW362" s="2"/>
+      <c r="CZ362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV363" s="2"/>
-      <c r="CY363" s="2"/>
+      <c r="CW363" s="2"/>
+      <c r="CZ363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV364" s="2"/>
-      <c r="CY364" s="2"/>
+      <c r="CW364" s="2"/>
+      <c r="CZ364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV365" s="2"/>
-      <c r="CY365" s="2"/>
+      <c r="CW365" s="2"/>
+      <c r="CZ365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV366" s="2"/>
-      <c r="CY366" s="2"/>
+      <c r="CW366" s="2"/>
+      <c r="CZ366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV367" s="2"/>
-      <c r="CY367" s="2"/>
+      <c r="CW367" s="2"/>
+      <c r="CZ367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV368" s="2"/>
-      <c r="CY368" s="2"/>
+      <c r="CW368" s="2"/>
+      <c r="CZ368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV369" s="2"/>
-      <c r="CY369" s="2"/>
+      <c r="CW369" s="2"/>
+      <c r="CZ369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV370" s="2"/>
-      <c r="CY370" s="2"/>
+      <c r="CW370" s="2"/>
+      <c r="CZ370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV371" s="2"/>
-      <c r="CY371" s="2"/>
+      <c r="CW371" s="2"/>
+      <c r="CZ371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV372" s="2"/>
-      <c r="CY372" s="2"/>
+      <c r="CW372" s="2"/>
+      <c r="CZ372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV373" s="2"/>
-      <c r="CY373" s="2"/>
+      <c r="CW373" s="2"/>
+      <c r="CZ373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV374" s="2"/>
-      <c r="CY374" s="2"/>
+      <c r="CW374" s="2"/>
+      <c r="CZ374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV375" s="2"/>
-      <c r="CY375" s="2"/>
+      <c r="CW375" s="2"/>
+      <c r="CZ375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV376" s="2"/>
-      <c r="CY376" s="2"/>
+      <c r="CW376" s="2"/>
+      <c r="CZ376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV377" s="2"/>
-      <c r="CY377" s="2"/>
+      <c r="CW377" s="2"/>
+      <c r="CZ377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV378" s="2"/>
-      <c r="CY378" s="2"/>
+      <c r="CW378" s="2"/>
+      <c r="CZ378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV379" s="2"/>
-      <c r="CY379" s="2"/>
+      <c r="CW379" s="2"/>
+      <c r="CZ379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV380" s="2"/>
-      <c r="CY380" s="2"/>
+      <c r="CW380" s="2"/>
+      <c r="CZ380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV381" s="2"/>
-      <c r="CY381" s="2"/>
+      <c r="CW381" s="2"/>
+      <c r="CZ381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV382" s="2"/>
-      <c r="CY382" s="2"/>
+      <c r="CW382" s="2"/>
+      <c r="CZ382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV383" s="2"/>
-      <c r="CY383" s="2"/>
+      <c r="CW383" s="2"/>
+      <c r="CZ383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV384" s="2"/>
-      <c r="CY384" s="2"/>
+      <c r="CW384" s="2"/>
+      <c r="CZ384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV385" s="2"/>
-      <c r="CY385" s="2"/>
+      <c r="CW385" s="2"/>
+      <c r="CZ385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV386" s="2"/>
-      <c r="CY386" s="2"/>
+      <c r="CW386" s="2"/>
+      <c r="CZ386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV387" s="2"/>
-      <c r="CY387" s="2"/>
+      <c r="CW387" s="2"/>
+      <c r="CZ387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV388" s="2"/>
-      <c r="CY388" s="2"/>
+      <c r="CW388" s="2"/>
+      <c r="CZ388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV389" s="2"/>
-      <c r="CY389" s="2"/>
+      <c r="CW389" s="2"/>
+      <c r="CZ389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV390" s="2"/>
-      <c r="CY390" s="2"/>
+      <c r="CW390" s="2"/>
+      <c r="CZ390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV391" s="2"/>
-      <c r="CY391" s="2"/>
+      <c r="CW391" s="2"/>
+      <c r="CZ391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV392" s="2"/>
-      <c r="CY392" s="2"/>
+      <c r="CW392" s="2"/>
+      <c r="CZ392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV393" s="2"/>
-      <c r="CY393" s="2"/>
+      <c r="CW393" s="2"/>
+      <c r="CZ393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV394" s="2"/>
-      <c r="CY394" s="2"/>
+      <c r="CW394" s="2"/>
+      <c r="CZ394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV395" s="2"/>
-      <c r="CY395" s="2"/>
+      <c r="CW395" s="2"/>
+      <c r="CZ395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV396" s="2"/>
-      <c r="CY396" s="2"/>
+      <c r="CW396" s="2"/>
+      <c r="CZ396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV397" s="2"/>
-      <c r="CY397" s="2"/>
+      <c r="CW397" s="2"/>
+      <c r="CZ397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV398" s="2"/>
-      <c r="CY398" s="2"/>
+      <c r="CW398" s="2"/>
+      <c r="CZ398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV399" s="2"/>
-      <c r="CY399" s="2"/>
+      <c r="CW399" s="2"/>
+      <c r="CZ399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV400" s="2"/>
-      <c r="CY400" s="2"/>
+      <c r="CW400" s="2"/>
+      <c r="CZ400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV401" s="2"/>
-      <c r="CY401" s="2"/>
+      <c r="CW401" s="2"/>
+      <c r="CZ401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV402" s="2"/>
-      <c r="CY402" s="2"/>
+      <c r="CW402" s="2"/>
+      <c r="CZ402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV403" s="2"/>
-      <c r="CY403" s="2"/>
+      <c r="CW403" s="2"/>
+      <c r="CZ403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV404" s="2"/>
-      <c r="CY404" s="2"/>
+      <c r="CW404" s="2"/>
+      <c r="CZ404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV405" s="2"/>
-      <c r="CY405" s="2"/>
+      <c r="CW405" s="2"/>
+      <c r="CZ405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV406" s="2"/>
-      <c r="CY406" s="2"/>
+      <c r="CW406" s="2"/>
+      <c r="CZ406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV407" s="2"/>
-      <c r="CY407" s="2"/>
+      <c r="CW407" s="2"/>
+      <c r="CZ407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV408" s="2"/>
-      <c r="CY408" s="2"/>
+      <c r="CW408" s="2"/>
+      <c r="CZ408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV409" s="2"/>
-      <c r="CY409" s="2"/>
+      <c r="CW409" s="2"/>
+      <c r="CZ409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV410" s="2"/>
-      <c r="CY410" s="2"/>
+      <c r="CW410" s="2"/>
+      <c r="CZ410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV411" s="2"/>
-      <c r="CY411" s="2"/>
+      <c r="CW411" s="2"/>
+      <c r="CZ411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV412" s="2"/>
-      <c r="CY412" s="2"/>
+      <c r="CW412" s="2"/>
+      <c r="CZ412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV413" s="2"/>
-      <c r="CY413" s="2"/>
+      <c r="CW413" s="2"/>
+      <c r="CZ413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV414" s="2"/>
-      <c r="CY414" s="2"/>
+      <c r="CW414" s="2"/>
+      <c r="CZ414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV415" s="2"/>
-      <c r="CY415" s="2"/>
+      <c r="CW415" s="2"/>
+      <c r="CZ415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV416" s="2"/>
-      <c r="CY416" s="2"/>
+      <c r="CW416" s="2"/>
+      <c r="CZ416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV417" s="2"/>
-      <c r="CY417" s="2"/>
+      <c r="CW417" s="2"/>
+      <c r="CZ417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV418" s="2"/>
-      <c r="CY418" s="2"/>
+      <c r="CW418" s="2"/>
+      <c r="CZ418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV419" s="2"/>
-      <c r="CY419" s="2"/>
+      <c r="CW419" s="2"/>
+      <c r="CZ419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV420" s="2"/>
-      <c r="CY420" s="2"/>
+      <c r="CW420" s="2"/>
+      <c r="CZ420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV421" s="2"/>
-      <c r="CY421" s="2"/>
+      <c r="CW421" s="2"/>
+      <c r="CZ421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV422" s="2"/>
-      <c r="CY422" s="2"/>
+      <c r="CW422" s="2"/>
+      <c r="CZ422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV423" s="2"/>
-      <c r="CY423" s="2"/>
+      <c r="CW423" s="2"/>
+      <c r="CZ423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV424" s="2"/>
-      <c r="CY424" s="2"/>
+      <c r="CW424" s="2"/>
+      <c r="CZ424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV425" s="2"/>
-      <c r="CY425" s="2"/>
+      <c r="CW425" s="2"/>
+      <c r="CZ425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV426" s="2"/>
-      <c r="CY426" s="2"/>
+      <c r="CW426" s="2"/>
+      <c r="CZ426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV427" s="2"/>
-      <c r="CY427" s="2"/>
+      <c r="CW427" s="2"/>
+      <c r="CZ427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV428" s="2"/>
-      <c r="CY428" s="2"/>
+      <c r="CW428" s="2"/>
+      <c r="CZ428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV429" s="2"/>
-      <c r="CY429" s="2"/>
+      <c r="CW429" s="2"/>
+      <c r="CZ429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV430" s="2"/>
-      <c r="CY430" s="2"/>
+      <c r="CW430" s="2"/>
+      <c r="CZ430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV431" s="2"/>
-      <c r="CY431" s="2"/>
+      <c r="CW431" s="2"/>
+      <c r="CZ431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV432" s="2"/>
-      <c r="CY432" s="2"/>
+      <c r="CW432" s="2"/>
+      <c r="CZ432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV433" s="2"/>
-      <c r="CY433" s="2"/>
+      <c r="CW433" s="2"/>
+      <c r="CZ433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV434" s="2"/>
-      <c r="CY434" s="2"/>
+      <c r="CW434" s="2"/>
+      <c r="CZ434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV435" s="2"/>
-      <c r="CY435" s="2"/>
+      <c r="CW435" s="2"/>
+      <c r="CZ435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV436" s="2"/>
-      <c r="CY436" s="2"/>
+      <c r="CW436" s="2"/>
+      <c r="CZ436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV437" s="2"/>
-      <c r="CY437" s="2"/>
+      <c r="CW437" s="2"/>
+      <c r="CZ437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV438" s="2"/>
-      <c r="CY438" s="2"/>
+      <c r="CW438" s="2"/>
+      <c r="CZ438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV439" s="2"/>
-      <c r="CY439" s="2"/>
+      <c r="CW439" s="2"/>
+      <c r="CZ439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV440" s="2"/>
-      <c r="CY440" s="2"/>
+      <c r="CW440" s="2"/>
+      <c r="CZ440" s="2"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV441" s="2"/>
-      <c r="CY441" s="2"/>
+      <c r="CW441" s="2"/>
+      <c r="CZ441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV442" s="2"/>
-      <c r="CY442" s="2"/>
+      <c r="CW442" s="2"/>
+      <c r="CZ442" s="2"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV443" s="2"/>
-      <c r="CY443" s="2"/>
+      <c r="CW443" s="2"/>
+      <c r="CZ443" s="2"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV444" s="2"/>
-      <c r="CY444" s="2"/>
+      <c r="CW444" s="2"/>
+      <c r="CZ444" s="2"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV445" s="2"/>
-      <c r="CY445" s="2"/>
+      <c r="CW445" s="2"/>
+      <c r="CZ445" s="2"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV446" s="2"/>
-      <c r="CY446" s="2"/>
+      <c r="CW446" s="2"/>
+      <c r="CZ446" s="2"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV447" s="2"/>
-      <c r="CY447" s="2"/>
+      <c r="CW447" s="2"/>
+      <c r="CZ447" s="2"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV448" s="2"/>
-      <c r="CY448" s="2"/>
+      <c r="CW448" s="2"/>
+      <c r="CZ448" s="2"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV449" s="2"/>
-      <c r="CY449" s="2"/>
+      <c r="CW449" s="2"/>
+      <c r="CZ449" s="2"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV450" s="2"/>
-      <c r="CY450" s="2"/>
+      <c r="CW450" s="2"/>
+      <c r="CZ450" s="2"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV451" s="2"/>
-      <c r="CY451" s="2"/>
+      <c r="CW451" s="2"/>
+      <c r="CZ451" s="2"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV452" s="2"/>
-      <c r="CY452" s="2"/>
+      <c r="CW452" s="2"/>
+      <c r="CZ452" s="2"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV453" s="2"/>
-      <c r="CY453" s="2"/>
+      <c r="CW453" s="2"/>
+      <c r="CZ453" s="2"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV454" s="2"/>
-      <c r="CY454" s="2"/>
+      <c r="CW454" s="2"/>
+      <c r="CZ454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV455" s="2"/>
-      <c r="CY455" s="2"/>
+      <c r="CW455" s="2"/>
+      <c r="CZ455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV456" s="2"/>
-      <c r="CY456" s="2"/>
+      <c r="CW456" s="2"/>
+      <c r="CZ456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV457" s="2"/>
-      <c r="CY457" s="2"/>
+      <c r="CW457" s="2"/>
+      <c r="CZ457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV458" s="2"/>
-      <c r="CY458" s="2"/>
+      <c r="CW458" s="2"/>
+      <c r="CZ458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV459" s="2"/>
-      <c r="CY459" s="2"/>
+      <c r="CW459" s="2"/>
+      <c r="CZ459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV460" s="2"/>
-      <c r="CY460" s="2"/>
+      <c r="CW460" s="2"/>
+      <c r="CZ460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV461" s="2"/>
-      <c r="CY461" s="2"/>
+      <c r="CW461" s="2"/>
+      <c r="CZ461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV462" s="2"/>
-      <c r="CY462" s="2"/>
+      <c r="CW462" s="2"/>
+      <c r="CZ462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV463" s="2"/>
-      <c r="CY463" s="2"/>
+      <c r="CW463" s="2"/>
+      <c r="CZ463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV464" s="2"/>
-      <c r="CY464" s="2"/>
+      <c r="CW464" s="2"/>
+      <c r="CZ464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV465" s="2"/>
-      <c r="CY465" s="2"/>
+      <c r="CW465" s="2"/>
+      <c r="CZ465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV466" s="2"/>
-      <c r="CY466" s="2"/>
+      <c r="CW466" s="2"/>
+      <c r="CZ466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV467" s="2"/>
-      <c r="CY467" s="2"/>
+      <c r="CW467" s="2"/>
+      <c r="CZ467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV468" s="2"/>
-      <c r="CY468" s="2"/>
+      <c r="CW468" s="2"/>
+      <c r="CZ468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV469" s="2"/>
-      <c r="CY469" s="2"/>
+      <c r="CW469" s="2"/>
+      <c r="CZ469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV470" s="2"/>
-      <c r="CY470" s="2"/>
+      <c r="CW470" s="2"/>
+      <c r="CZ470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV471" s="2"/>
-      <c r="CY471" s="2"/>
+      <c r="CW471" s="2"/>
+      <c r="CZ471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV472" s="2"/>
-      <c r="CY472" s="2"/>
+      <c r="CW472" s="2"/>
+      <c r="CZ472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV473" s="2"/>
-      <c r="CY473" s="2"/>
+      <c r="CW473" s="2"/>
+      <c r="CZ473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV474" s="2"/>
-      <c r="CY474" s="2"/>
+      <c r="CW474" s="2"/>
+      <c r="CZ474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV475" s="2"/>
-      <c r="CY475" s="2"/>
+      <c r="CW475" s="2"/>
+      <c r="CZ475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV476" s="2"/>
-      <c r="CY476" s="2"/>
+      <c r="CW476" s="2"/>
+      <c r="CZ476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV477" s="2"/>
-      <c r="CY477" s="2"/>
+      <c r="CW477" s="2"/>
+      <c r="CZ477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV478" s="2"/>
-      <c r="CY478" s="2"/>
+      <c r="CW478" s="2"/>
+      <c r="CZ478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV479" s="2"/>
-      <c r="CY479" s="2"/>
+      <c r="CW479" s="2"/>
+      <c r="CZ479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV480" s="2"/>
-      <c r="CY480" s="2"/>
+      <c r="CW480" s="2"/>
+      <c r="CZ480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV481" s="2"/>
-      <c r="CY481" s="2"/>
+      <c r="CW481" s="2"/>
+      <c r="CZ481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV482" s="2"/>
-      <c r="CY482" s="2"/>
+      <c r="CW482" s="2"/>
+      <c r="CZ482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV483" s="2"/>
-      <c r="CY483" s="2"/>
+      <c r="CW483" s="2"/>
+      <c r="CZ483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV484" s="2"/>
-      <c r="CY484" s="2"/>
+      <c r="CW484" s="2"/>
+      <c r="CZ484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV485" s="2"/>
-      <c r="CY485" s="2"/>
+      <c r="CW485" s="2"/>
+      <c r="CZ485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV486" s="2"/>
-      <c r="CY486" s="2"/>
+      <c r="CW486" s="2"/>
+      <c r="CZ486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV487" s="2"/>
-      <c r="CY487" s="2"/>
+      <c r="CW487" s="2"/>
+      <c r="CZ487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV488" s="2"/>
-      <c r="CY488" s="2"/>
+      <c r="CW488" s="2"/>
+      <c r="CZ488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV489" s="2"/>
-      <c r="CY489" s="2"/>
+      <c r="CW489" s="2"/>
+      <c r="CZ489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV490" s="2"/>
-      <c r="CY490" s="2"/>
+      <c r="CW490" s="2"/>
+      <c r="CZ490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV491" s="2"/>
-      <c r="CY491" s="2"/>
+      <c r="CW491" s="2"/>
+      <c r="CZ491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV492" s="2"/>
-      <c r="CY492" s="2"/>
+      <c r="CW492" s="2"/>
+      <c r="CZ492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV493" s="2"/>
-      <c r="CY493" s="2"/>
+      <c r="CW493" s="2"/>
+      <c r="CZ493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV494" s="2"/>
-      <c r="CY494" s="2"/>
+      <c r="CW494" s="2"/>
+      <c r="CZ494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV495" s="2"/>
-      <c r="CY495" s="2"/>
+      <c r="CW495" s="2"/>
+      <c r="CZ495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV496" s="2"/>
-      <c r="CY496" s="2"/>
+      <c r="CW496" s="2"/>
+      <c r="CZ496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV497" s="2"/>
-      <c r="CY497" s="2"/>
+      <c r="CW497" s="2"/>
+      <c r="CZ497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV498" s="2"/>
-      <c r="CY498" s="2"/>
+      <c r="CW498" s="2"/>
+      <c r="CZ498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV499" s="2"/>
-      <c r="CY499" s="2"/>
+      <c r="CW499" s="2"/>
+      <c r="CZ499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV500" s="2"/>
-      <c r="CY500" s="2"/>
+      <c r="CW500" s="2"/>
+      <c r="CZ500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV501" s="2"/>
-      <c r="CY501" s="2"/>
+      <c r="CW501" s="2"/>
+      <c r="CZ501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV502" s="2"/>
-      <c r="CY502" s="2"/>
+      <c r="CW502" s="2"/>
+      <c r="CZ502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV503" s="2"/>
-      <c r="CY503" s="2"/>
+      <c r="CW503" s="2"/>
+      <c r="CZ503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV504" s="2"/>
-      <c r="CY504" s="2"/>
+      <c r="CW504" s="2"/>
+      <c r="CZ504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV505" s="2"/>
-      <c r="CY505" s="2"/>
+      <c r="CW505" s="2"/>
+      <c r="CZ505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV506" s="2"/>
-      <c r="CY506" s="2"/>
+      <c r="CW506" s="2"/>
+      <c r="CZ506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV507" s="2"/>
-      <c r="CY507" s="2"/>
+      <c r="CW507" s="2"/>
+      <c r="CZ507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV508" s="2"/>
-      <c r="CY508" s="2"/>
+      <c r="CW508" s="2"/>
+      <c r="CZ508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV509" s="2"/>
-      <c r="CY509" s="2"/>
+      <c r="CW509" s="2"/>
+      <c r="CZ509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV510" s="2"/>
-      <c r="CY510" s="2"/>
+      <c r="CW510" s="2"/>
+      <c r="CZ510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV511" s="2"/>
-      <c r="CY511" s="2"/>
+      <c r="CW511" s="2"/>
+      <c r="CZ511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV512" s="2"/>
-      <c r="CY512" s="2"/>
+      <c r="CW512" s="2"/>
+      <c r="CZ512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV513" s="2"/>
-      <c r="CY513" s="2"/>
+      <c r="CW513" s="2"/>
+      <c r="CZ513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV514" s="2"/>
-      <c r="CY514" s="2"/>
+      <c r="CW514" s="2"/>
+      <c r="CZ514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV515" s="2"/>
-      <c r="CY515" s="2"/>
+      <c r="CW515" s="2"/>
+      <c r="CZ515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV516" s="2"/>
-      <c r="CY516" s="2"/>
+      <c r="CW516" s="2"/>
+      <c r="CZ516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV517" s="2"/>
-      <c r="CY517" s="2"/>
+      <c r="CW517" s="2"/>
+      <c r="CZ517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV518" s="2"/>
-      <c r="CY518" s="2"/>
+      <c r="CW518" s="2"/>
+      <c r="CZ518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV519" s="2"/>
-      <c r="CY519" s="2"/>
+      <c r="CW519" s="2"/>
+      <c r="CZ519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV520" s="2"/>
-      <c r="CY520" s="2"/>
+      <c r="CW520" s="2"/>
+      <c r="CZ520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV521" s="2"/>
-      <c r="CY521" s="2"/>
+      <c r="CW521" s="2"/>
+      <c r="CZ521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV522" s="2"/>
-      <c r="CY522" s="2"/>
+      <c r="CW522" s="2"/>
+      <c r="CZ522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV523" s="2"/>
-      <c r="CY523" s="2"/>
+      <c r="CW523" s="2"/>
+      <c r="CZ523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV524" s="2"/>
-      <c r="CY524" s="2"/>
+      <c r="CW524" s="2"/>
+      <c r="CZ524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV525" s="2"/>
-      <c r="CY525" s="2"/>
+      <c r="CW525" s="2"/>
+      <c r="CZ525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV526" s="2"/>
-      <c r="CY526" s="2"/>
+      <c r="CW526" s="2"/>
+      <c r="CZ526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV527" s="2"/>
-      <c r="CY527" s="2"/>
+      <c r="CW527" s="2"/>
+      <c r="CZ527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV528" s="2"/>
-      <c r="CY528" s="2"/>
+      <c r="CW528" s="2"/>
+      <c r="CZ528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV529" s="2"/>
-      <c r="CY529" s="2"/>
+      <c r="CW529" s="2"/>
+      <c r="CZ529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV530" s="2"/>
-      <c r="CY530" s="2"/>
+      <c r="CW530" s="2"/>
+      <c r="CZ530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV531" s="2"/>
-      <c r="CY531" s="2"/>
+      <c r="CW531" s="2"/>
+      <c r="CZ531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV532" s="2"/>
-      <c r="CY532" s="2"/>
+      <c r="CW532" s="2"/>
+      <c r="CZ532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV533" s="2"/>
-      <c r="CY533" s="2"/>
+      <c r="CW533" s="2"/>
+      <c r="CZ533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV534" s="2"/>
-      <c r="CY534" s="2"/>
+      <c r="CW534" s="2"/>
+      <c r="CZ534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV535" s="2"/>
-      <c r="CY535" s="2"/>
+      <c r="CW535" s="2"/>
+      <c r="CZ535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV536" s="2"/>
-      <c r="CY536" s="2"/>
+      <c r="CW536" s="2"/>
+      <c r="CZ536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV537" s="2"/>
-      <c r="CY537" s="2"/>
+      <c r="CW537" s="2"/>
+      <c r="CZ537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV538" s="2"/>
-      <c r="CY538" s="2"/>
+      <c r="CW538" s="2"/>
+      <c r="CZ538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV539" s="2"/>
-      <c r="CY539" s="2"/>
+      <c r="CW539" s="2"/>
+      <c r="CZ539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV540" s="2"/>
-      <c r="CY540" s="2"/>
+      <c r="CW540" s="2"/>
+      <c r="CZ540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV541" s="2"/>
-      <c r="CY541" s="2"/>
+      <c r="CW541" s="2"/>
+      <c r="CZ541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV542" s="2"/>
-      <c r="CY542" s="2"/>
+      <c r="CW542" s="2"/>
+      <c r="CZ542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV543" s="2"/>
-      <c r="CY543" s="2"/>
+      <c r="CW543" s="2"/>
+      <c r="CZ543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV544" s="2"/>
-      <c r="CY544" s="2"/>
+      <c r="CW544" s="2"/>
+      <c r="CZ544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV545" s="2"/>
-      <c r="CY545" s="2"/>
+      <c r="CW545" s="2"/>
+      <c r="CZ545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV546" s="2"/>
-      <c r="CY546" s="2"/>
+      <c r="CW546" s="2"/>
+      <c r="CZ546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV547" s="2"/>
-      <c r="CY547" s="2"/>
+      <c r="CW547" s="2"/>
+      <c r="CZ547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV548" s="2"/>
-      <c r="CY548" s="2"/>
+      <c r="CW548" s="2"/>
+      <c r="CZ548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV549" s="2"/>
-      <c r="CY549" s="2"/>
+      <c r="CW549" s="2"/>
+      <c r="CZ549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV550" s="2"/>
-      <c r="CY550" s="2"/>
+      <c r="CW550" s="2"/>
+      <c r="CZ550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV551" s="2"/>
-      <c r="CY551" s="2"/>
+      <c r="CW551" s="2"/>
+      <c r="CZ551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV552" s="2"/>
-      <c r="CY552" s="2"/>
+      <c r="CW552" s="2"/>
+      <c r="CZ552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV553" s="2"/>
-      <c r="CY553" s="2"/>
+      <c r="CW553" s="2"/>
+      <c r="CZ553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV554" s="2"/>
-      <c r="CY554" s="2"/>
+      <c r="CW554" s="2"/>
+      <c r="CZ554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV555" s="2"/>
-      <c r="CY555" s="2"/>
+      <c r="CW555" s="2"/>
+      <c r="CZ555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV556" s="2"/>
-      <c r="CY556" s="2"/>
+      <c r="CW556" s="2"/>
+      <c r="CZ556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV557" s="2"/>
-      <c r="CY557" s="2"/>
+      <c r="CW557" s="2"/>
+      <c r="CZ557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV558" s="2"/>
-      <c r="CY558" s="2"/>
+      <c r="CW558" s="2"/>
+      <c r="CZ558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV559" s="2"/>
-      <c r="CY559" s="2"/>
+      <c r="CW559" s="2"/>
+      <c r="CZ559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV560" s="2"/>
-      <c r="CY560" s="2"/>
+      <c r="CW560" s="2"/>
+      <c r="CZ560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV561" s="2"/>
-      <c r="CY561" s="2"/>
+      <c r="CW561" s="2"/>
+      <c r="CZ561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV562" s="2"/>
-      <c r="CY562" s="2"/>
+      <c r="CW562" s="2"/>
+      <c r="CZ562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV563" s="2"/>
-      <c r="CY563" s="2"/>
+      <c r="CW563" s="2"/>
+      <c r="CZ563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV564" s="2"/>
-      <c r="CY564" s="2"/>
+      <c r="CW564" s="2"/>
+      <c r="CZ564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV565" s="2"/>
-      <c r="CY565" s="2"/>
+      <c r="CW565" s="2"/>
+      <c r="CZ565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV566" s="2"/>
-      <c r="CY566" s="2"/>
+      <c r="CW566" s="2"/>
+      <c r="CZ566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV567" s="2"/>
-      <c r="CY567" s="2"/>
+      <c r="CW567" s="2"/>
+      <c r="CZ567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV568" s="2"/>
-      <c r="CY568" s="2"/>
+      <c r="CW568" s="2"/>
+      <c r="CZ568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV569" s="2"/>
-      <c r="CY569" s="2"/>
+      <c r="CW569" s="2"/>
+      <c r="CZ569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV570" s="2"/>
-      <c r="CY570" s="2"/>
+      <c r="CW570" s="2"/>
+      <c r="CZ570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV571" s="2"/>
-      <c r="CY571" s="2"/>
+      <c r="CW571" s="2"/>
+      <c r="CZ571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV572" s="2"/>
-      <c r="CY572" s="2"/>
+      <c r="CW572" s="2"/>
+      <c r="CZ572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV573" s="2"/>
-      <c r="CY573" s="2"/>
+      <c r="CW573" s="2"/>
+      <c r="CZ573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV574" s="2"/>
-      <c r="CY574" s="2"/>
+      <c r="CW574" s="2"/>
+      <c r="CZ574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV575" s="2"/>
-      <c r="CY575" s="2"/>
+      <c r="CW575" s="2"/>
+      <c r="CZ575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV576" s="2"/>
-      <c r="CY576" s="2"/>
+      <c r="CW576" s="2"/>
+      <c r="CZ576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV577" s="2"/>
-      <c r="CY577" s="2"/>
+      <c r="CW577" s="2"/>
+      <c r="CZ577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV578" s="2"/>
-      <c r="CY578" s="2"/>
+      <c r="CW578" s="2"/>
+      <c r="CZ578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV579" s="2"/>
-      <c r="CY579" s="2"/>
+      <c r="CW579" s="2"/>
+      <c r="CZ579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV580" s="2"/>
-      <c r="CY580" s="2"/>
+      <c r="CW580" s="2"/>
+      <c r="CZ580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV581" s="2"/>
-      <c r="CY581" s="2"/>
+      <c r="CW581" s="2"/>
+      <c r="CZ581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV582" s="2"/>
-      <c r="CY582" s="2"/>
+      <c r="CW582" s="2"/>
+      <c r="CZ582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV583" s="2"/>
-      <c r="CY583" s="2"/>
+      <c r="CW583" s="2"/>
+      <c r="CZ583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV584" s="2"/>
-      <c r="CY584" s="2"/>
+      <c r="CW584" s="2"/>
+      <c r="CZ584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV585" s="2"/>
-      <c r="CY585" s="2"/>
+      <c r="CW585" s="2"/>
+      <c r="CZ585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV586" s="2"/>
-      <c r="CY586" s="2"/>
+      <c r="CW586" s="2"/>
+      <c r="CZ586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV587" s="2"/>
-      <c r="CY587" s="2"/>
+      <c r="CW587" s="2"/>
+      <c r="CZ587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV588" s="2"/>
-      <c r="CY588" s="2"/>
+      <c r="CW588" s="2"/>
+      <c r="CZ588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV589" s="2"/>
-      <c r="CY589" s="2"/>
+      <c r="CW589" s="2"/>
+      <c r="CZ589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV590" s="2"/>
-      <c r="CY590" s="2"/>
+      <c r="CW590" s="2"/>
+      <c r="CZ590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV591" s="2"/>
-      <c r="CY591" s="2"/>
+      <c r="CW591" s="2"/>
+      <c r="CZ591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV592" s="2"/>
-      <c r="CY592" s="2"/>
+      <c r="CW592" s="2"/>
+      <c r="CZ592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV593" s="2"/>
-      <c r="CY593" s="2"/>
+      <c r="CW593" s="2"/>
+      <c r="CZ593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV594" s="2"/>
-      <c r="CY594" s="2"/>
+      <c r="CW594" s="2"/>
+      <c r="CZ594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV595" s="2"/>
-      <c r="CY595" s="2"/>
+      <c r="CW595" s="2"/>
+      <c r="CZ595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV596" s="2"/>
-      <c r="CY596" s="2"/>
+      <c r="CW596" s="2"/>
+      <c r="CZ596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV597" s="2"/>
-      <c r="CY597" s="2"/>
+      <c r="CW597" s="2"/>
+      <c r="CZ597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV598" s="2"/>
-      <c r="CY598" s="2"/>
+      <c r="CW598" s="2"/>
+      <c r="CZ598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV599" s="2"/>
-      <c r="CY599" s="2"/>
+      <c r="CW599" s="2"/>
+      <c r="CZ599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV600" s="2"/>
-      <c r="CY600" s="2"/>
+      <c r="CW600" s="2"/>
+      <c r="CZ600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV601" s="2"/>
-      <c r="CY601" s="2"/>
+      <c r="CW601" s="2"/>
+      <c r="CZ601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV602" s="2"/>
-      <c r="CY602" s="2"/>
+      <c r="CW602" s="2"/>
+      <c r="CZ602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV603" s="2"/>
-      <c r="CY603" s="2"/>
+      <c r="CW603" s="2"/>
+      <c r="CZ603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV604" s="2"/>
-      <c r="CY604" s="2"/>
+      <c r="CW604" s="2"/>
+      <c r="CZ604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV605" s="2"/>
-      <c r="CY605" s="2"/>
+      <c r="CW605" s="2"/>
+      <c r="CZ605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV606" s="2"/>
-      <c r="CY606" s="2"/>
+      <c r="CW606" s="2"/>
+      <c r="CZ606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV607" s="2"/>
-      <c r="CY607" s="2"/>
+      <c r="CW607" s="2"/>
+      <c r="CZ607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV608" s="2"/>
-      <c r="CY608" s="2"/>
+      <c r="CW608" s="2"/>
+      <c r="CZ608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV609" s="2"/>
-      <c r="CY609" s="2"/>
+      <c r="CW609" s="2"/>
+      <c r="CZ609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV610" s="2"/>
-      <c r="CY610" s="2"/>
+      <c r="CW610" s="2"/>
+      <c r="CZ610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV611" s="2"/>
-      <c r="CY611" s="2"/>
+      <c r="CW611" s="2"/>
+      <c r="CZ611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV612" s="2"/>
-      <c r="CY612" s="2"/>
+      <c r="CW612" s="2"/>
+      <c r="CZ612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV613" s="2"/>
-      <c r="CY613" s="2"/>
+      <c r="CW613" s="2"/>
+      <c r="CZ613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV614" s="2"/>
-      <c r="CY614" s="2"/>
+      <c r="CW614" s="2"/>
+      <c r="CZ614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV615" s="2"/>
-      <c r="CY615" s="2"/>
+      <c r="CW615" s="2"/>
+      <c r="CZ615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV616" s="2"/>
-      <c r="CY616" s="2"/>
+      <c r="CW616" s="2"/>
+      <c r="CZ616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV617" s="2"/>
-      <c r="CY617" s="2"/>
+      <c r="CW617" s="2"/>
+      <c r="CZ617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV618" s="2"/>
-      <c r="CY618" s="2"/>
+      <c r="CW618" s="2"/>
+      <c r="CZ618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV619" s="2"/>
-      <c r="CY619" s="2"/>
+      <c r="CW619" s="2"/>
+      <c r="CZ619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV620" s="2"/>
-      <c r="CY620" s="2"/>
+      <c r="CW620" s="2"/>
+      <c r="CZ620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV621" s="2"/>
-      <c r="CY621" s="2"/>
+      <c r="CW621" s="2"/>
+      <c r="CZ621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV622" s="2"/>
-      <c r="CY622" s="2"/>
+      <c r="CW622" s="2"/>
+      <c r="CZ622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV623" s="2"/>
-      <c r="CY623" s="2"/>
+      <c r="CW623" s="2"/>
+      <c r="CZ623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV624" s="2"/>
-      <c r="CY624" s="2"/>
+      <c r="CW624" s="2"/>
+      <c r="CZ624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV625" s="2"/>
-      <c r="CY625" s="2"/>
+      <c r="CW625" s="2"/>
+      <c r="CZ625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV626" s="2"/>
-      <c r="CY626" s="2"/>
+      <c r="CW626" s="2"/>
+      <c r="CZ626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV627" s="2"/>
-      <c r="CY627" s="2"/>
+      <c r="CW627" s="2"/>
+      <c r="CZ627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV628" s="2"/>
-      <c r="CY628" s="2"/>
+      <c r="CW628" s="2"/>
+      <c r="CZ628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV629" s="2"/>
-      <c r="CY629" s="2"/>
+      <c r="CW629" s="2"/>
+      <c r="CZ629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV630" s="2"/>
-      <c r="CY630" s="2"/>
+      <c r="CW630" s="2"/>
+      <c r="CZ630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV631" s="2"/>
-      <c r="CY631" s="2"/>
+      <c r="CW631" s="2"/>
+      <c r="CZ631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV632" s="2"/>
-      <c r="CY632" s="2"/>
+      <c r="CW632" s="2"/>
+      <c r="CZ632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV633" s="2"/>
-      <c r="CY633" s="2"/>
+      <c r="CW633" s="2"/>
+      <c r="CZ633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV634" s="2"/>
-      <c r="CY634" s="2"/>
+      <c r="CW634" s="2"/>
+      <c r="CZ634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV635" s="2"/>
-      <c r="CY635" s="2"/>
+      <c r="CW635" s="2"/>
+      <c r="CZ635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV636" s="2"/>
-      <c r="CY636" s="2"/>
+      <c r="CW636" s="2"/>
+      <c r="CZ636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV637" s="2"/>
-      <c r="CY637" s="2"/>
+      <c r="CW637" s="2"/>
+      <c r="CZ637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV638" s="2"/>
-      <c r="CY638" s="2"/>
+      <c r="CW638" s="2"/>
+      <c r="CZ638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV639" s="2"/>
-      <c r="CY639" s="2"/>
+      <c r="CW639" s="2"/>
+      <c r="CZ639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV640" s="2"/>
-      <c r="CY640" s="2"/>
+      <c r="CW640" s="2"/>
+      <c r="CZ640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV641" s="2"/>
-      <c r="CY641" s="2"/>
+      <c r="CW641" s="2"/>
+      <c r="CZ641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV642" s="2"/>
-      <c r="CY642" s="2"/>
+      <c r="CW642" s="2"/>
+      <c r="CZ642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV643" s="2"/>
-      <c r="CY643" s="2"/>
+      <c r="CW643" s="2"/>
+      <c r="CZ643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV644" s="2"/>
-      <c r="CY644" s="2"/>
+      <c r="CW644" s="2"/>
+      <c r="CZ644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV645" s="2"/>
-      <c r="CY645" s="2"/>
+      <c r="CW645" s="2"/>
+      <c r="CZ645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV646" s="2"/>
-      <c r="CY646" s="2"/>
+      <c r="CW646" s="2"/>
+      <c r="CZ646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV647" s="2"/>
-      <c r="CY647" s="2"/>
+      <c r="CW647" s="2"/>
+      <c r="CZ647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV648" s="2"/>
-      <c r="CY648" s="2"/>
+      <c r="CW648" s="2"/>
+      <c r="CZ648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV649" s="2"/>
-      <c r="CY649" s="2"/>
+      <c r="CW649" s="2"/>
+      <c r="CZ649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV650" s="2"/>
-      <c r="CY650" s="2"/>
+      <c r="CW650" s="2"/>
+      <c r="CZ650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV651" s="2"/>
-      <c r="CY651" s="2"/>
+      <c r="CW651" s="2"/>
+      <c r="CZ651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV652" s="2"/>
-      <c r="CY652" s="2"/>
+      <c r="CW652" s="2"/>
+      <c r="CZ652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV653" s="2"/>
-      <c r="CY653" s="2"/>
+      <c r="CW653" s="2"/>
+      <c r="CZ653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV654" s="2"/>
-      <c r="CY654" s="2"/>
+      <c r="CW654" s="2"/>
+      <c r="CZ654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV655" s="2"/>
-      <c r="CY655" s="2"/>
+      <c r="CW655" s="2"/>
+      <c r="CZ655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV656" s="2"/>
-      <c r="CY656" s="2"/>
+      <c r="CW656" s="2"/>
+      <c r="CZ656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV657" s="2"/>
-      <c r="CY657" s="2"/>
+      <c r="CW657" s="2"/>
+      <c r="CZ657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV658" s="2"/>
-      <c r="CY658" s="2"/>
+      <c r="CW658" s="2"/>
+      <c r="CZ658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV659" s="2"/>
-      <c r="CY659" s="2"/>
+      <c r="CW659" s="2"/>
+      <c r="CZ659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV660" s="2"/>
-      <c r="CY660" s="2"/>
+      <c r="CW660" s="2"/>
+      <c r="CZ660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV661" s="2"/>
-      <c r="CY661" s="2"/>
+      <c r="CW661" s="2"/>
+      <c r="CZ661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV662" s="2"/>
-      <c r="CY662" s="2"/>
+      <c r="CW662" s="2"/>
+      <c r="CZ662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV663" s="2"/>
-      <c r="CY663" s="2"/>
+      <c r="CW663" s="2"/>
+      <c r="CZ663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV664" s="2"/>
-      <c r="CY664" s="2"/>
+      <c r="CW664" s="2"/>
+      <c r="CZ664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV665" s="2"/>
-      <c r="CY665" s="2"/>
+      <c r="CW665" s="2"/>
+      <c r="CZ665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV666" s="2"/>
-      <c r="CY666" s="2"/>
+      <c r="CW666" s="2"/>
+      <c r="CZ666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV667" s="2"/>
-      <c r="CY667" s="2"/>
+      <c r="CW667" s="2"/>
+      <c r="CZ667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV668" s="2"/>
-      <c r="CY668" s="2"/>
+      <c r="CW668" s="2"/>
+      <c r="CZ668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV669" s="2"/>
-      <c r="CY669" s="2"/>
+      <c r="CW669" s="2"/>
+      <c r="CZ669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV670" s="2"/>
-      <c r="CY670" s="2"/>
+      <c r="CW670" s="2"/>
+      <c r="CZ670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV671" s="2"/>
-      <c r="CY671" s="2"/>
+      <c r="CW671" s="2"/>
+      <c r="CZ671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV672" s="2"/>
-      <c r="CY672" s="2"/>
+      <c r="CW672" s="2"/>
+      <c r="CZ672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV673" s="2"/>
-      <c r="CY673" s="2"/>
+      <c r="CW673" s="2"/>
+      <c r="CZ673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV674" s="2"/>
-      <c r="CY674" s="2"/>
+      <c r="CW674" s="2"/>
+      <c r="CZ674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV675" s="2"/>
-      <c r="CY675" s="2"/>
+      <c r="CW675" s="2"/>
+      <c r="CZ675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV676" s="2"/>
-      <c r="CY676" s="2"/>
+      <c r="CW676" s="2"/>
+      <c r="CZ676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV677" s="2"/>
-      <c r="CY677" s="2"/>
+      <c r="CW677" s="2"/>
+      <c r="CZ677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV678" s="2"/>
-      <c r="CY678" s="2"/>
+      <c r="CW678" s="2"/>
+      <c r="CZ678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV679" s="2"/>
-      <c r="CY679" s="2"/>
+      <c r="CW679" s="2"/>
+      <c r="CZ679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV680" s="2"/>
-      <c r="CY680" s="2"/>
+      <c r="CW680" s="2"/>
+      <c r="CZ680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV681" s="2"/>
-      <c r="CY681" s="2"/>
+      <c r="CW681" s="2"/>
+      <c r="CZ681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV682" s="2"/>
-      <c r="CY682" s="2"/>
+      <c r="CW682" s="2"/>
+      <c r="CZ682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV683" s="2"/>
-      <c r="CY683" s="2"/>
+      <c r="CW683" s="2"/>
+      <c r="CZ683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV684" s="2"/>
-      <c r="CY684" s="2"/>
+      <c r="CW684" s="2"/>
+      <c r="CZ684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV685" s="2"/>
-      <c r="CY685" s="2"/>
+      <c r="CW685" s="2"/>
+      <c r="CZ685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV686" s="2"/>
-      <c r="CY686" s="2"/>
+      <c r="CW686" s="2"/>
+      <c r="CZ686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV687" s="2"/>
-      <c r="CY687" s="2"/>
+      <c r="CW687" s="2"/>
+      <c r="CZ687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV688" s="2"/>
-      <c r="CY688" s="2"/>
+      <c r="CW688" s="2"/>
+      <c r="CZ688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV689" s="2"/>
-      <c r="CY689" s="2"/>
+      <c r="CW689" s="2"/>
+      <c r="CZ689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV690" s="2"/>
-      <c r="CY690" s="2"/>
+      <c r="CW690" s="2"/>
+      <c r="CZ690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV691" s="2"/>
-      <c r="CY691" s="2"/>
+      <c r="CW691" s="2"/>
+      <c r="CZ691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV692" s="2"/>
-      <c r="CY692" s="2"/>
+      <c r="CW692" s="2"/>
+      <c r="CZ692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV693" s="2"/>
-      <c r="CY693" s="2"/>
+      <c r="CW693" s="2"/>
+      <c r="CZ693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV694" s="2"/>
-      <c r="CY694" s="2"/>
+      <c r="CW694" s="2"/>
+      <c r="CZ694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV695" s="2"/>
-      <c r="CY695" s="2"/>
+      <c r="CW695" s="2"/>
+      <c r="CZ695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV696" s="2"/>
-      <c r="CY696" s="2"/>
+      <c r="CW696" s="2"/>
+      <c r="CZ696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV697" s="2"/>
-      <c r="CY697" s="2"/>
+      <c r="CW697" s="2"/>
+      <c r="CZ697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV698" s="2"/>
-      <c r="CY698" s="2"/>
+      <c r="CW698" s="2"/>
+      <c r="CZ698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV699" s="2"/>
-      <c r="CY699" s="2"/>
+      <c r="CW699" s="2"/>
+      <c r="CZ699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV700" s="2"/>
-      <c r="CY700" s="2"/>
+      <c r="CW700" s="2"/>
+      <c r="CZ700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV701" s="2"/>
-      <c r="CY701" s="2"/>
+      <c r="CW701" s="2"/>
+      <c r="CZ701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV702" s="2"/>
-      <c r="CY702" s="2"/>
+      <c r="CW702" s="2"/>
+      <c r="CZ702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV703" s="2"/>
-      <c r="CY703" s="2"/>
+      <c r="CW703" s="2"/>
+      <c r="CZ703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV704" s="2"/>
-      <c r="CY704" s="2"/>
+      <c r="CW704" s="2"/>
+      <c r="CZ704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV705" s="2"/>
-      <c r="CY705" s="2"/>
+      <c r="CW705" s="2"/>
+      <c r="CZ705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV706" s="2"/>
-      <c r="CY706" s="2"/>
+      <c r="CW706" s="2"/>
+      <c r="CZ706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV707" s="2"/>
-      <c r="CY707" s="2"/>
+      <c r="CW707" s="2"/>
+      <c r="CZ707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV708" s="2"/>
-      <c r="CY708" s="2"/>
+      <c r="CW708" s="2"/>
+      <c r="CZ708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV709" s="2"/>
-      <c r="CY709" s="2"/>
+      <c r="CW709" s="2"/>
+      <c r="CZ709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV710" s="2"/>
-      <c r="CY710" s="2"/>
+      <c r="CW710" s="2"/>
+      <c r="CZ710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV711" s="2"/>
-      <c r="CY711" s="2"/>
+      <c r="CW711" s="2"/>
+      <c r="CZ711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV712" s="2"/>
-      <c r="CY712" s="2"/>
+      <c r="CW712" s="2"/>
+      <c r="CZ712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV713" s="2"/>
-      <c r="CY713" s="2"/>
+      <c r="CW713" s="2"/>
+      <c r="CZ713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV714" s="2"/>
-      <c r="CY714" s="2"/>
+      <c r="CW714" s="2"/>
+      <c r="CZ714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV715" s="2"/>
-      <c r="CY715" s="2"/>
+      <c r="CW715" s="2"/>
+      <c r="CZ715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV716" s="2"/>
-      <c r="CY716" s="2"/>
+      <c r="CW716" s="2"/>
+      <c r="CZ716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV717" s="2"/>
-      <c r="CY717" s="2"/>
+      <c r="CW717" s="2"/>
+      <c r="CZ717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV718" s="2"/>
-      <c r="CY718" s="2"/>
+      <c r="CW718" s="2"/>
+      <c r="CZ718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV719" s="2"/>
-      <c r="CY719" s="2"/>
+      <c r="CW719" s="2"/>
+      <c r="CZ719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV720" s="2"/>
-      <c r="CY720" s="2"/>
+      <c r="CW720" s="2"/>
+      <c r="CZ720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV721" s="2"/>
-      <c r="CY721" s="2"/>
+      <c r="CW721" s="2"/>
+      <c r="CZ721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV722" s="2"/>
-      <c r="CY722" s="2"/>
+      <c r="CW722" s="2"/>
+      <c r="CZ722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV723" s="2"/>
-      <c r="CY723" s="2"/>
+      <c r="CW723" s="2"/>
+      <c r="CZ723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV724" s="2"/>
-      <c r="CY724" s="2"/>
+      <c r="CW724" s="2"/>
+      <c r="CZ724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV725" s="2"/>
-      <c r="CY725" s="2"/>
+      <c r="CW725" s="2"/>
+      <c r="CZ725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV726" s="2"/>
-      <c r="CY726" s="2"/>
+      <c r="CW726" s="2"/>
+      <c r="CZ726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV727" s="2"/>
-      <c r="CY727" s="2"/>
+      <c r="CW727" s="2"/>
+      <c r="CZ727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV728" s="2"/>
-      <c r="CY728" s="2"/>
+      <c r="CW728" s="2"/>
+      <c r="CZ728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV729" s="2"/>
-      <c r="CY729" s="2"/>
+      <c r="CW729" s="2"/>
+      <c r="CZ729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV730" s="2"/>
-      <c r="CY730" s="2"/>
+      <c r="CW730" s="2"/>
+      <c r="CZ730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV731" s="2"/>
-      <c r="CY731" s="2"/>
+      <c r="CW731" s="2"/>
+      <c r="CZ731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV732" s="2"/>
-      <c r="CY732" s="2"/>
+      <c r="CW732" s="2"/>
+      <c r="CZ732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV733" s="2"/>
-      <c r="CY733" s="2"/>
+      <c r="CW733" s="2"/>
+      <c r="CZ733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV734" s="2"/>
-      <c r="CY734" s="2"/>
+      <c r="CW734" s="2"/>
+      <c r="CZ734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV735" s="2"/>
-      <c r="CY735" s="2"/>
+      <c r="CW735" s="2"/>
+      <c r="CZ735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV736" s="2"/>
-      <c r="CY736" s="2"/>
+      <c r="CW736" s="2"/>
+      <c r="CZ736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV737" s="2"/>
-      <c r="CY737" s="2"/>
+      <c r="CW737" s="2"/>
+      <c r="CZ737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV738" s="2"/>
-      <c r="CY738" s="2"/>
+      <c r="CW738" s="2"/>
+      <c r="CZ738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV739" s="2"/>
-      <c r="CY739" s="2"/>
+      <c r="CW739" s="2"/>
+      <c r="CZ739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV740" s="2"/>
-      <c r="CY740" s="2"/>
+      <c r="CW740" s="2"/>
+      <c r="CZ740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV741" s="2"/>
-      <c r="CY741" s="2"/>
+      <c r="CW741" s="2"/>
+      <c r="CZ741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV742" s="2"/>
-      <c r="CY742" s="2"/>
+      <c r="CW742" s="2"/>
+      <c r="CZ742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV743" s="2"/>
-      <c r="CY743" s="2"/>
+      <c r="CW743" s="2"/>
+      <c r="CZ743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV744" s="2"/>
-      <c r="CY744" s="2"/>
+      <c r="CW744" s="2"/>
+      <c r="CZ744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV745" s="2"/>
-      <c r="CY745" s="2"/>
+      <c r="CW745" s="2"/>
+      <c r="CZ745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV746" s="2"/>
-      <c r="CY746" s="2"/>
+      <c r="CW746" s="2"/>
+      <c r="CZ746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV747" s="2"/>
-      <c r="CY747" s="2"/>
+      <c r="CW747" s="2"/>
+      <c r="CZ747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV748" s="2"/>
-      <c r="CY748" s="2"/>
+      <c r="CW748" s="2"/>
+      <c r="CZ748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV749" s="2"/>
-      <c r="CY749" s="2"/>
+      <c r="CW749" s="2"/>
+      <c r="CZ749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV750" s="2"/>
-      <c r="CY750" s="2"/>
+      <c r="CW750" s="2"/>
+      <c r="CZ750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV751" s="2"/>
-      <c r="CY751" s="2"/>
+      <c r="CW751" s="2"/>
+      <c r="CZ751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV752" s="2"/>
-      <c r="CY752" s="2"/>
+      <c r="CW752" s="2"/>
+      <c r="CZ752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV753" s="2"/>
-      <c r="CY753" s="2"/>
+      <c r="CW753" s="2"/>
+      <c r="CZ753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV754" s="2"/>
-      <c r="CY754" s="2"/>
+      <c r="CW754" s="2"/>
+      <c r="CZ754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV755" s="2"/>
-      <c r="CY755" s="2"/>
+      <c r="CW755" s="2"/>
+      <c r="CZ755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV756" s="2"/>
-      <c r="CY756" s="2"/>
+      <c r="CW756" s="2"/>
+      <c r="CZ756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV757" s="2"/>
-      <c r="CY757" s="2"/>
+      <c r="CW757" s="2"/>
+      <c r="CZ757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV758" s="2"/>
-      <c r="CY758" s="2"/>
+      <c r="CW758" s="2"/>
+      <c r="CZ758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV759" s="2"/>
-      <c r="CY759" s="2"/>
+      <c r="CW759" s="2"/>
+      <c r="CZ759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV760" s="2"/>
-      <c r="CY760" s="2"/>
+      <c r="CW760" s="2"/>
+      <c r="CZ760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV761" s="2"/>
-      <c r="CY761" s="2"/>
+      <c r="CW761" s="2"/>
+      <c r="CZ761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV762" s="2"/>
-      <c r="CY762" s="2"/>
+      <c r="CW762" s="2"/>
+      <c r="CZ762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV763" s="2"/>
-      <c r="CY763" s="2"/>
+      <c r="CW763" s="2"/>
+      <c r="CZ763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV764" s="2"/>
-      <c r="CY764" s="2"/>
+      <c r="CW764" s="2"/>
+      <c r="CZ764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV765" s="2"/>
-      <c r="CY765" s="2"/>
+      <c r="CW765" s="2"/>
+      <c r="CZ765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV766" s="2"/>
-      <c r="CY766" s="2"/>
+      <c r="CW766" s="2"/>
+      <c r="CZ766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV767" s="2"/>
-      <c r="CY767" s="2"/>
+      <c r="CW767" s="2"/>
+      <c r="CZ767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV768" s="2"/>
-      <c r="CY768" s="2"/>
+      <c r="CW768" s="2"/>
+      <c r="CZ768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV769" s="2"/>
-      <c r="CY769" s="2"/>
+      <c r="CW769" s="2"/>
+      <c r="CZ769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV770" s="2"/>
-      <c r="CY770" s="2"/>
+      <c r="CW770" s="2"/>
+      <c r="CZ770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV771" s="2"/>
-      <c r="CY771" s="2"/>
+      <c r="CW771" s="2"/>
+      <c r="CZ771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV772" s="2"/>
-      <c r="CY772" s="2"/>
+      <c r="CW772" s="2"/>
+      <c r="CZ772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV773" s="2"/>
-      <c r="CY773" s="2"/>
+      <c r="CW773" s="2"/>
+      <c r="CZ773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV774" s="2"/>
-      <c r="CY774" s="2"/>
+      <c r="CW774" s="2"/>
+      <c r="CZ774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV775" s="2"/>
-      <c r="CY775" s="2"/>
+      <c r="CW775" s="2"/>
+      <c r="CZ775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV776" s="2"/>
-      <c r="CY776" s="2"/>
+      <c r="CW776" s="2"/>
+      <c r="CZ776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV777" s="2"/>
-      <c r="CY777" s="2"/>
+      <c r="CW777" s="2"/>
+      <c r="CZ777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV778" s="2"/>
-      <c r="CY778" s="2"/>
+      <c r="CW778" s="2"/>
+      <c r="CZ778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV779" s="2"/>
-      <c r="CY779" s="2"/>
+      <c r="CW779" s="2"/>
+      <c r="CZ779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV780" s="2"/>
-      <c r="CY780" s="2"/>
+      <c r="CW780" s="2"/>
+      <c r="CZ780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV781" s="2"/>
-      <c r="CY781" s="2"/>
+      <c r="CW781" s="2"/>
+      <c r="CZ781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV782" s="2"/>
-      <c r="CY782" s="2"/>
+      <c r="CW782" s="2"/>
+      <c r="CZ782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV783" s="2"/>
-      <c r="CY783" s="2"/>
+      <c r="CW783" s="2"/>
+      <c r="CZ783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV784" s="2"/>
-      <c r="CY784" s="2"/>
+      <c r="CW784" s="2"/>
+      <c r="CZ784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV785" s="2"/>
-      <c r="CY785" s="2"/>
+      <c r="CW785" s="2"/>
+      <c r="CZ785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV786" s="2"/>
-      <c r="CY786" s="2"/>
+      <c r="CW786" s="2"/>
+      <c r="CZ786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV787" s="2"/>
-      <c r="CY787" s="2"/>
+      <c r="CW787" s="2"/>
+      <c r="CZ787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV788" s="2"/>
-      <c r="CY788" s="2"/>
+      <c r="CW788" s="2"/>
+      <c r="CZ788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV789" s="2"/>
-      <c r="CY789" s="2"/>
+      <c r="CW789" s="2"/>
+      <c r="CZ789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV790" s="2"/>
-      <c r="CY790" s="2"/>
+      <c r="CW790" s="2"/>
+      <c r="CZ790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV791" s="2"/>
-      <c r="CY791" s="2"/>
+      <c r="CW791" s="2"/>
+      <c r="CZ791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV792" s="2"/>
-      <c r="CY792" s="2"/>
+      <c r="CW792" s="2"/>
+      <c r="CZ792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV793" s="2"/>
-      <c r="CY793" s="2"/>
+      <c r="CW793" s="2"/>
+      <c r="CZ793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV794" s="2"/>
-      <c r="CY794" s="2"/>
+      <c r="CW794" s="2"/>
+      <c r="CZ794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV795" s="2"/>
-      <c r="CY795" s="2"/>
+      <c r="CW795" s="2"/>
+      <c r="CZ795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV796" s="2"/>
-      <c r="CY796" s="2"/>
+      <c r="CW796" s="2"/>
+      <c r="CZ796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV797" s="2"/>
-      <c r="CY797" s="2"/>
+      <c r="CW797" s="2"/>
+      <c r="CZ797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV798" s="2"/>
-      <c r="CY798" s="2"/>
+      <c r="CW798" s="2"/>
+      <c r="CZ798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV799" s="2"/>
-      <c r="CY799" s="2"/>
+      <c r="CW799" s="2"/>
+      <c r="CZ799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV800" s="2"/>
-      <c r="CY800" s="2"/>
+      <c r="CW800" s="2"/>
+      <c r="CZ800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV801" s="2"/>
-      <c r="CY801" s="2"/>
+      <c r="CW801" s="2"/>
+      <c r="CZ801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV802" s="2"/>
-      <c r="CY802" s="2"/>
+      <c r="CW802" s="2"/>
+      <c r="CZ802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV803" s="2"/>
-      <c r="CY803" s="2"/>
+      <c r="CW803" s="2"/>
+      <c r="CZ803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV804" s="2"/>
-      <c r="CY804" s="2"/>
+      <c r="CW804" s="2"/>
+      <c r="CZ804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV805" s="2"/>
-      <c r="CY805" s="2"/>
+      <c r="CW805" s="2"/>
+      <c r="CZ805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV806" s="2"/>
-      <c r="CY806" s="2"/>
+      <c r="CW806" s="2"/>
+      <c r="CZ806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV807" s="2"/>
-      <c r="CY807" s="2"/>
+      <c r="CW807" s="2"/>
+      <c r="CZ807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV808" s="2"/>
-      <c r="CY808" s="2"/>
+      <c r="CW808" s="2"/>
+      <c r="CZ808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV809" s="2"/>
-      <c r="CY809" s="2"/>
+      <c r="CW809" s="2"/>
+      <c r="CZ809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV810" s="2"/>
-      <c r="CY810" s="2"/>
+      <c r="CW810" s="2"/>
+      <c r="CZ810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV811" s="2"/>
-      <c r="CY811" s="2"/>
+      <c r="CW811" s="2"/>
+      <c r="CZ811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV812" s="2"/>
-      <c r="CY812" s="2"/>
+      <c r="CW812" s="2"/>
+      <c r="CZ812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV813" s="2"/>
-      <c r="CY813" s="2"/>
+      <c r="CW813" s="2"/>
+      <c r="CZ813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV814" s="2"/>
-      <c r="CY814" s="2"/>
+      <c r="CW814" s="2"/>
+      <c r="CZ814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV815" s="2"/>
-      <c r="CY815" s="2"/>
+      <c r="CW815" s="2"/>
+      <c r="CZ815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV816" s="2"/>
-      <c r="CY816" s="2"/>
+      <c r="CW816" s="2"/>
+      <c r="CZ816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV817" s="2"/>
-      <c r="CY817" s="2"/>
+      <c r="CW817" s="2"/>
+      <c r="CZ817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV818" s="2"/>
-      <c r="CY818" s="2"/>
+      <c r="CW818" s="2"/>
+      <c r="CZ818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV819" s="2"/>
-      <c r="CY819" s="2"/>
+      <c r="CW819" s="2"/>
+      <c r="CZ819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV820" s="2"/>
-      <c r="CY820" s="2"/>
+      <c r="CW820" s="2"/>
+      <c r="CZ820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV821" s="2"/>
-      <c r="CY821" s="2"/>
+      <c r="CW821" s="2"/>
+      <c r="CZ821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV822" s="2"/>
-      <c r="CY822" s="2"/>
+      <c r="CW822" s="2"/>
+      <c r="CZ822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV823" s="2"/>
-      <c r="CY823" s="2"/>
+      <c r="CW823" s="2"/>
+      <c r="CZ823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV824" s="2"/>
-      <c r="CY824" s="2"/>
+      <c r="CW824" s="2"/>
+      <c r="CZ824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV825" s="2"/>
-      <c r="CY825" s="2"/>
+      <c r="CW825" s="2"/>
+      <c r="CZ825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV826" s="2"/>
-      <c r="CY826" s="2"/>
+      <c r="CW826" s="2"/>
+      <c r="CZ826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV827" s="2"/>
-      <c r="CY827" s="2"/>
+      <c r="CW827" s="2"/>
+      <c r="CZ827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV828" s="2"/>
-      <c r="CY828" s="2"/>
+      <c r="CW828" s="2"/>
+      <c r="CZ828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV829" s="2"/>
-      <c r="CY829" s="2"/>
+      <c r="CW829" s="2"/>
+      <c r="CZ829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV830" s="2"/>
-      <c r="CY830" s="2"/>
+      <c r="CW830" s="2"/>
+      <c r="CZ830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV831" s="2"/>
-      <c r="CY831" s="2"/>
+      <c r="CW831" s="2"/>
+      <c r="CZ831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV832" s="2"/>
-      <c r="CY832" s="2"/>
+      <c r="CW832" s="2"/>
+      <c r="CZ832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV833" s="2"/>
-      <c r="CY833" s="2"/>
+      <c r="CW833" s="2"/>
+      <c r="CZ833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV834" s="2"/>
-      <c r="CY834" s="2"/>
+      <c r="CW834" s="2"/>
+      <c r="CZ834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV835" s="2"/>
-      <c r="CY835" s="2"/>
+      <c r="CW835" s="2"/>
+      <c r="CZ835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV836" s="2"/>
-      <c r="CY836" s="2"/>
+      <c r="CW836" s="2"/>
+      <c r="CZ836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV837" s="2"/>
-      <c r="CY837" s="2"/>
+      <c r="CW837" s="2"/>
+      <c r="CZ837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV838" s="2"/>
-      <c r="CY838" s="2"/>
+      <c r="CW838" s="2"/>
+      <c r="CZ838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV839" s="2"/>
-      <c r="CY839" s="2"/>
+      <c r="CW839" s="2"/>
+      <c r="CZ839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV840" s="2"/>
-      <c r="CY840" s="2"/>
+      <c r="CW840" s="2"/>
+      <c r="CZ840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV841" s="2"/>
-      <c r="CY841" s="2"/>
+      <c r="CW841" s="2"/>
+      <c r="CZ841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV842" s="2"/>
-      <c r="CY842" s="2"/>
+      <c r="CW842" s="2"/>
+      <c r="CZ842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV843" s="2"/>
-      <c r="CY843" s="2"/>
+      <c r="CW843" s="2"/>
+      <c r="CZ843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV844" s="2"/>
-      <c r="CY844" s="2"/>
+      <c r="CW844" s="2"/>
+      <c r="CZ844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV845" s="2"/>
-      <c r="CY845" s="2"/>
+      <c r="CW845" s="2"/>
+      <c r="CZ845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV846" s="2"/>
-      <c r="CY846" s="2"/>
+      <c r="CW846" s="2"/>
+      <c r="CZ846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV847" s="2"/>
-      <c r="CY847" s="2"/>
+      <c r="CW847" s="2"/>
+      <c r="CZ847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV848" s="2"/>
-      <c r="CY848" s="2"/>
+      <c r="CW848" s="2"/>
+      <c r="CZ848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV849" s="2"/>
-      <c r="CY849" s="2"/>
+      <c r="CW849" s="2"/>
+      <c r="CZ849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV850" s="2"/>
-      <c r="CY850" s="2"/>
+      <c r="CW850" s="2"/>
+      <c r="CZ850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV851" s="2"/>
-      <c r="CY851" s="2"/>
+      <c r="CW851" s="2"/>
+      <c r="CZ851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV852" s="2"/>
-      <c r="CY852" s="2"/>
+      <c r="CW852" s="2"/>
+      <c r="CZ852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV853" s="2"/>
-      <c r="CY853" s="2"/>
+      <c r="CW853" s="2"/>
+      <c r="CZ853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV854" s="2"/>
-      <c r="CY854" s="2"/>
+      <c r="CW854" s="2"/>
+      <c r="CZ854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV855" s="2"/>
-      <c r="CY855" s="2"/>
+      <c r="CW855" s="2"/>
+      <c r="CZ855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV856" s="2"/>
-      <c r="CY856" s="2"/>
+      <c r="CW856" s="2"/>
+      <c r="CZ856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV857" s="2"/>
-      <c r="CY857" s="2"/>
+      <c r="CW857" s="2"/>
+      <c r="CZ857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV858" s="2"/>
-      <c r="CY858" s="2"/>
+      <c r="CW858" s="2"/>
+      <c r="CZ858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV859" s="2"/>
-      <c r="CY859" s="2"/>
+      <c r="CW859" s="2"/>
+      <c r="CZ859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV860" s="2"/>
-      <c r="CY860" s="2"/>
+      <c r="CW860" s="2"/>
+      <c r="CZ860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV861" s="2"/>
-      <c r="CY861" s="2"/>
+      <c r="CW861" s="2"/>
+      <c r="CZ861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV862" s="2"/>
-      <c r="CY862" s="2"/>
+      <c r="CW862" s="2"/>
+      <c r="CZ862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV863" s="2"/>
-      <c r="CY863" s="2"/>
+      <c r="CW863" s="2"/>
+      <c r="CZ863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV864" s="2"/>
-      <c r="CY864" s="2"/>
+      <c r="CW864" s="2"/>
+      <c r="CZ864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV865" s="2"/>
-      <c r="CY865" s="2"/>
+      <c r="CW865" s="2"/>
+      <c r="CZ865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV866" s="2"/>
-      <c r="CY866" s="2"/>
+      <c r="CW866" s="2"/>
+      <c r="CZ866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV867" s="2"/>
-      <c r="CY867" s="2"/>
+      <c r="CW867" s="2"/>
+      <c r="CZ867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV868" s="2"/>
-      <c r="CY868" s="2"/>
+      <c r="CW868" s="2"/>
+      <c r="CZ868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV869" s="2"/>
-      <c r="CY869" s="2"/>
+      <c r="CW869" s="2"/>
+      <c r="CZ869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV870" s="2"/>
-      <c r="CY870" s="2"/>
+      <c r="CW870" s="2"/>
+      <c r="CZ870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV871" s="2"/>
-      <c r="CY871" s="2"/>
+      <c r="CW871" s="2"/>
+      <c r="CZ871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV872" s="2"/>
-      <c r="CY872" s="2"/>
+      <c r="CW872" s="2"/>
+      <c r="CZ872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV873" s="2"/>
-      <c r="CY873" s="2"/>
+      <c r="CW873" s="2"/>
+      <c r="CZ873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV874" s="2"/>
-      <c r="CY874" s="2"/>
+      <c r="CW874" s="2"/>
+      <c r="CZ874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV875" s="2"/>
-      <c r="CY875" s="2"/>
+      <c r="CW875" s="2"/>
+      <c r="CZ875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV876" s="2"/>
-      <c r="CY876" s="2"/>
+      <c r="CW876" s="2"/>
+      <c r="CZ876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV877" s="2"/>
-      <c r="CY877" s="2"/>
+      <c r="CW877" s="2"/>
+      <c r="CZ877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV878" s="2"/>
-      <c r="CY878" s="2"/>
+      <c r="CW878" s="2"/>
+      <c r="CZ878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV879" s="2"/>
-      <c r="CY879" s="2"/>
+      <c r="CW879" s="2"/>
+      <c r="CZ879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV880" s="2"/>
-      <c r="CY880" s="2"/>
+      <c r="CW880" s="2"/>
+      <c r="CZ880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV881" s="2"/>
-      <c r="CY881" s="2"/>
+      <c r="CW881" s="2"/>
+      <c r="CZ881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV882" s="2"/>
-      <c r="CY882" s="2"/>
+      <c r="CW882" s="2"/>
+      <c r="CZ882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV883" s="2"/>
-      <c r="CY883" s="2"/>
+      <c r="CW883" s="2"/>
+      <c r="CZ883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV884" s="2"/>
-      <c r="CY884" s="2"/>
+      <c r="CW884" s="2"/>
+      <c r="CZ884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV885" s="2"/>
-      <c r="CY885" s="2"/>
+      <c r="CW885" s="2"/>
+      <c r="CZ885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV886" s="2"/>
-      <c r="CY886" s="2"/>
+      <c r="CW886" s="2"/>
+      <c r="CZ886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV887" s="2"/>
-      <c r="CY887" s="2"/>
+      <c r="CW887" s="2"/>
+      <c r="CZ887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV888" s="2"/>
-      <c r="CY888" s="2"/>
+      <c r="CW888" s="2"/>
+      <c r="CZ888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV889" s="2"/>
-      <c r="CY889" s="2"/>
+      <c r="CW889" s="2"/>
+      <c r="CZ889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV890" s="2"/>
-      <c r="CY890" s="2"/>
+      <c r="CW890" s="2"/>
+      <c r="CZ890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV891" s="2"/>
-      <c r="CY891" s="2"/>
+      <c r="CW891" s="2"/>
+      <c r="CZ891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV892" s="2"/>
-      <c r="CY892" s="2"/>
+      <c r="CW892" s="2"/>
+      <c r="CZ892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV893" s="2"/>
-      <c r="CY893" s="2"/>
+      <c r="CW893" s="2"/>
+      <c r="CZ893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV894" s="2"/>
-      <c r="CY894" s="2"/>
+      <c r="CW894" s="2"/>
+      <c r="CZ894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV895" s="2"/>
-      <c r="CY895" s="2"/>
+      <c r="CW895" s="2"/>
+      <c r="CZ895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV896" s="2"/>
-      <c r="CY896" s="2"/>
+      <c r="CW896" s="2"/>
+      <c r="CZ896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV897" s="2"/>
-      <c r="CY897" s="2"/>
+      <c r="CW897" s="2"/>
+      <c r="CZ897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV898" s="2"/>
-      <c r="CY898" s="2"/>
+      <c r="CW898" s="2"/>
+      <c r="CZ898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV899" s="2"/>
-      <c r="CY899" s="2"/>
+      <c r="CW899" s="2"/>
+      <c r="CZ899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV900" s="2"/>
-      <c r="CY900" s="2"/>
+      <c r="CW900" s="2"/>
+      <c r="CZ900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV901" s="2"/>
-      <c r="CY901" s="2"/>
+      <c r="CW901" s="2"/>
+      <c r="CZ901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV902" s="2"/>
-      <c r="CY902" s="2"/>
+      <c r="CW902" s="2"/>
+      <c r="CZ902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV903" s="2"/>
-      <c r="CY903" s="2"/>
+      <c r="CW903" s="2"/>
+      <c r="CZ903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV904" s="2"/>
-      <c r="CY904" s="2"/>
+      <c r="CW904" s="2"/>
+      <c r="CZ904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV905" s="2"/>
-      <c r="CY905" s="2"/>
+      <c r="CW905" s="2"/>
+      <c r="CZ905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV906" s="2"/>
-      <c r="CY906" s="2"/>
+      <c r="CW906" s="2"/>
+      <c r="CZ906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV907" s="2"/>
-      <c r="CY907" s="2"/>
+      <c r="CW907" s="2"/>
+      <c r="CZ907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV908" s="2"/>
-      <c r="CY908" s="2"/>
+      <c r="CW908" s="2"/>
+      <c r="CZ908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV909" s="2"/>
-      <c r="CY909" s="2"/>
+      <c r="CW909" s="2"/>
+      <c r="CZ909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV910" s="2"/>
-      <c r="CY910" s="2"/>
+      <c r="CW910" s="2"/>
+      <c r="CZ910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV911" s="2"/>
-      <c r="CY911" s="2"/>
+      <c r="CW911" s="2"/>
+      <c r="CZ911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV912" s="2"/>
-      <c r="CY912" s="2"/>
+      <c r="CW912" s="2"/>
+      <c r="CZ912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV913" s="2"/>
-      <c r="CY913" s="2"/>
+      <c r="CW913" s="2"/>
+      <c r="CZ913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV914" s="2"/>
-      <c r="CY914" s="2"/>
+      <c r="CW914" s="2"/>
+      <c r="CZ914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV915" s="2"/>
-      <c r="CY915" s="2"/>
+      <c r="CW915" s="2"/>
+      <c r="CZ915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV916" s="2"/>
-      <c r="CY916" s="2"/>
+      <c r="CW916" s="2"/>
+      <c r="CZ916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV917" s="2"/>
-      <c r="CY917" s="2"/>
+      <c r="CW917" s="2"/>
+      <c r="CZ917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV918" s="2"/>
-      <c r="CY918" s="2"/>
+      <c r="CW918" s="2"/>
+      <c r="CZ918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV919" s="2"/>
-      <c r="CY919" s="2"/>
+      <c r="CW919" s="2"/>
+      <c r="CZ919" s="2"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV920" s="2"/>
-      <c r="CY920" s="2"/>
+      <c r="CW920" s="2"/>
+      <c r="CZ920" s="2"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV921" s="2"/>
-      <c r="CY921" s="2"/>
+      <c r="CW921" s="2"/>
+      <c r="CZ921" s="2"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV922" s="2"/>
-      <c r="CY922" s="2"/>
+      <c r="CW922" s="2"/>
+      <c r="CZ922" s="2"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV923" s="2"/>
-      <c r="CY923" s="2"/>
+      <c r="CW923" s="2"/>
+      <c r="CZ923" s="2"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV924" s="2"/>
-      <c r="CY924" s="2"/>
+      <c r="CW924" s="2"/>
+      <c r="CZ924" s="2"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV925" s="2"/>
-      <c r="CY925" s="2"/>
+      <c r="CW925" s="2"/>
+      <c r="CZ925" s="2"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV926" s="2"/>
-      <c r="CY926" s="2"/>
+      <c r="CW926" s="2"/>
+      <c r="CZ926" s="2"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV927" s="2"/>
-      <c r="CY927" s="2"/>
+      <c r="CW927" s="2"/>
+      <c r="CZ927" s="2"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV928" s="2"/>
-      <c r="CY928" s="2"/>
+      <c r="CW928" s="2"/>
+      <c r="CZ928" s="2"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV929" s="2"/>
-      <c r="CY929" s="2"/>
+      <c r="CW929" s="2"/>
+      <c r="CZ929" s="2"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV930" s="2"/>
-      <c r="CY930" s="2"/>
+      <c r="CW930" s="2"/>
+      <c r="CZ930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV931" s="2"/>
-      <c r="CY931" s="2"/>
+      <c r="CW931" s="2"/>
+      <c r="CZ931" s="2"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV932" s="2"/>
-      <c r="CY932" s="2"/>
+      <c r="CW932" s="2"/>
+      <c r="CZ932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV933" s="2"/>
-      <c r="CY933" s="2"/>
+      <c r="CW933" s="2"/>
+      <c r="CZ933" s="2"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV934" s="2"/>
-      <c r="CY934" s="2"/>
+      <c r="CW934" s="2"/>
+      <c r="CZ934" s="2"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV935" s="2"/>
-      <c r="CY935" s="2"/>
+      <c r="CW935" s="2"/>
+      <c r="CZ935" s="2"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV936" s="2"/>
-      <c r="CY936" s="2"/>
+      <c r="CW936" s="2"/>
+      <c r="CZ936" s="2"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV937" s="2"/>
-      <c r="CY937" s="2"/>
+      <c r="CW937" s="2"/>
+      <c r="CZ937" s="2"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV938" s="2"/>
-      <c r="CY938" s="2"/>
+      <c r="CW938" s="2"/>
+      <c r="CZ938" s="2"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV939" s="2"/>
-      <c r="CY939" s="2"/>
+      <c r="CW939" s="2"/>
+      <c r="CZ939" s="2"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV940" s="2"/>
-      <c r="CY940" s="2"/>
+      <c r="CW940" s="2"/>
+      <c r="CZ940" s="2"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV941" s="2"/>
-      <c r="CY941" s="2"/>
+      <c r="CW941" s="2"/>
+      <c r="CZ941" s="2"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV942" s="2"/>
-      <c r="CY942" s="2"/>
+      <c r="CW942" s="2"/>
+      <c r="CZ942" s="2"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV943" s="2"/>
-      <c r="CY943" s="2"/>
+      <c r="CW943" s="2"/>
+      <c r="CZ943" s="2"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV944" s="2"/>
-      <c r="CY944" s="2"/>
+      <c r="CW944" s="2"/>
+      <c r="CZ944" s="2"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV945" s="2"/>
-      <c r="CY945" s="2"/>
+      <c r="CW945" s="2"/>
+      <c r="CZ945" s="2"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV946" s="2"/>
-      <c r="CY946" s="2"/>
+      <c r="CW946" s="2"/>
+      <c r="CZ946" s="2"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV947" s="2"/>
-      <c r="CY947" s="2"/>
+      <c r="CW947" s="2"/>
+      <c r="CZ947" s="2"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV948" s="2"/>
-      <c r="CY948" s="2"/>
+      <c r="CW948" s="2"/>
+      <c r="CZ948" s="2"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV949" s="2"/>
-      <c r="CY949" s="2"/>
+      <c r="CW949" s="2"/>
+      <c r="CZ949" s="2"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV950" s="2"/>
-      <c r="CY950" s="2"/>
+      <c r="CW950" s="2"/>
+      <c r="CZ950" s="2"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV951" s="2"/>
-      <c r="CY951" s="2"/>
+      <c r="CW951" s="2"/>
+      <c r="CZ951" s="2"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV952" s="2"/>
-      <c r="CY952" s="2"/>
+      <c r="CW952" s="2"/>
+      <c r="CZ952" s="2"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV953" s="2"/>
-      <c r="CY953" s="2"/>
+      <c r="CW953" s="2"/>
+      <c r="CZ953" s="2"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV954" s="2"/>
-      <c r="CY954" s="2"/>
+      <c r="CW954" s="2"/>
+      <c r="CZ954" s="2"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV955" s="2"/>
-      <c r="CY955" s="2"/>
+      <c r="CW955" s="2"/>
+      <c r="CZ955" s="2"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV956" s="2"/>
-      <c r="CY956" s="2"/>
+      <c r="CW956" s="2"/>
+      <c r="CZ956" s="2"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV957" s="2"/>
-      <c r="CY957" s="2"/>
+      <c r="CW957" s="2"/>
+      <c r="CZ957" s="2"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV958" s="2"/>
-      <c r="CY958" s="2"/>
+      <c r="CW958" s="2"/>
+      <c r="CZ958" s="2"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV959" s="2"/>
-      <c r="CY959" s="2"/>
+      <c r="CW959" s="2"/>
+      <c r="CZ959" s="2"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV960" s="2"/>
-      <c r="CY960" s="2"/>
+      <c r="CW960" s="2"/>
+      <c r="CZ960" s="2"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV961" s="2"/>
-      <c r="CY961" s="2"/>
+      <c r="CW961" s="2"/>
+      <c r="CZ961" s="2"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV962" s="2"/>
-      <c r="CY962" s="2"/>
+      <c r="CW962" s="2"/>
+      <c r="CZ962" s="2"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV963" s="2"/>
-      <c r="CY963" s="2"/>
+      <c r="CW963" s="2"/>
+      <c r="CZ963" s="2"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV964" s="2"/>
-      <c r="CY964" s="2"/>
+      <c r="CW964" s="2"/>
+      <c r="CZ964" s="2"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV965" s="2"/>
-      <c r="CY965" s="2"/>
+      <c r="CW965" s="2"/>
+      <c r="CZ965" s="2"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV966" s="2"/>
-      <c r="CY966" s="2"/>
+      <c r="CW966" s="2"/>
+      <c r="CZ966" s="2"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV967" s="2"/>
-      <c r="CY967" s="2"/>
+      <c r="CW967" s="2"/>
+      <c r="CZ967" s="2"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV968" s="2"/>
-      <c r="CY968" s="2"/>
+      <c r="CW968" s="2"/>
+      <c r="CZ968" s="2"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV969" s="2"/>
-      <c r="CY969" s="2"/>
+      <c r="CW969" s="2"/>
+      <c r="CZ969" s="2"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV970" s="2"/>
-      <c r="CY970" s="2"/>
+      <c r="CW970" s="2"/>
+      <c r="CZ970" s="2"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV971" s="2"/>
-      <c r="CY971" s="2"/>
+      <c r="CW971" s="2"/>
+      <c r="CZ971" s="2"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV972" s="2"/>
-      <c r="CY972" s="2"/>
+      <c r="CW972" s="2"/>
+      <c r="CZ972" s="2"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV973" s="2"/>
-      <c r="CY973" s="2"/>
+      <c r="CW973" s="2"/>
+      <c r="CZ973" s="2"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV974" s="2"/>
-      <c r="CY974" s="2"/>
+      <c r="CW974" s="2"/>
+      <c r="CZ974" s="2"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV975" s="2"/>
-      <c r="CY975" s="2"/>
+      <c r="CW975" s="2"/>
+      <c r="CZ975" s="2"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV976" s="2"/>
-      <c r="CY976" s="2"/>
+      <c r="CW976" s="2"/>
+      <c r="CZ976" s="2"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV977" s="2"/>
-      <c r="CY977" s="2"/>
+      <c r="CW977" s="2"/>
+      <c r="CZ977" s="2"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV978" s="2"/>
-      <c r="CY978" s="2"/>
+      <c r="CW978" s="2"/>
+      <c r="CZ978" s="2"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV979" s="2"/>
-      <c r="CY979" s="2"/>
+      <c r="CW979" s="2"/>
+      <c r="CZ979" s="2"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV980" s="2"/>
-      <c r="CY980" s="2"/>
+      <c r="CW980" s="2"/>
+      <c r="CZ980" s="2"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV981" s="2"/>
-      <c r="CY981" s="2"/>
+      <c r="CW981" s="2"/>
+      <c r="CZ981" s="2"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV982" s="2"/>
-      <c r="CY982" s="2"/>
+      <c r="CW982" s="2"/>
+      <c r="CZ982" s="2"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV983" s="2"/>
-      <c r="CY983" s="2"/>
+      <c r="CW983" s="2"/>
+      <c r="CZ983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV984" s="2"/>
-      <c r="CY984" s="2"/>
+      <c r="CW984" s="2"/>
+      <c r="CZ984" s="2"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV985" s="2"/>
-      <c r="CY985" s="2"/>
+      <c r="CW985" s="2"/>
+      <c r="CZ985" s="2"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV986" s="2"/>
-      <c r="CY986" s="2"/>
+      <c r="CW986" s="2"/>
+      <c r="CZ986" s="2"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV987" s="2"/>
-      <c r="CY987" s="2"/>
+      <c r="CW987" s="2"/>
+      <c r="CZ987" s="2"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV988" s="2"/>
-      <c r="CY988" s="2"/>
+      <c r="CW988" s="2"/>
+      <c r="CZ988" s="2"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV989" s="2"/>
-      <c r="CY989" s="2"/>
+      <c r="CW989" s="2"/>
+      <c r="CZ989" s="2"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV990" s="2"/>
-      <c r="CY990" s="2"/>
+      <c r="CW990" s="2"/>
+      <c r="CZ990" s="2"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV991" s="2"/>
-      <c r="CY991" s="2"/>
+      <c r="CW991" s="2"/>
+      <c r="CZ991" s="2"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV992" s="2"/>
-      <c r="CY992" s="2"/>
+      <c r="CW992" s="2"/>
+      <c r="CZ992" s="2"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV993" s="2"/>
-      <c r="CY993" s="2"/>
+      <c r="CW993" s="2"/>
+      <c r="CZ993" s="2"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV994" s="2"/>
-      <c r="CY994" s="2"/>
+      <c r="CW994" s="2"/>
+      <c r="CZ994" s="2"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV995" s="2"/>
-      <c r="CY995" s="2"/>
+      <c r="CW995" s="2"/>
+      <c r="CZ995" s="2"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV996" s="2"/>
-      <c r="CY996" s="2"/>
+      <c r="CW996" s="2"/>
+      <c r="CZ996" s="2"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV997" s="2"/>
-      <c r="CY997" s="2"/>
+      <c r="CW997" s="2"/>
+      <c r="CZ997" s="2"/>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV998" s="2"/>
-      <c r="CY998" s="2"/>
+      <c r="CW998" s="2"/>
+      <c r="CZ998" s="2"/>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV999" s="2"/>
-      <c r="CY999" s="2"/>
+      <c r="CW999" s="2"/>
+      <c r="CZ999" s="2"/>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV1000" s="2"/>
-      <c r="CY1000" s="2"/>
+      <c r="CW1000" s="2"/>
+      <c r="CZ1000" s="2"/>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV1001" s="2"/>
-      <c r="CY1001" s="2"/>
+      <c r="CW1001" s="2"/>
+      <c r="CZ1001" s="2"/>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV1002" s="2"/>
-      <c r="CY1002" s="2"/>
+      <c r="CW1002" s="2"/>
+      <c r="CZ1002" s="2"/>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV1003" s="2"/>
-      <c r="CY1003" s="2"/>
+      <c r="CW1003" s="2"/>
+      <c r="CZ1003" s="2"/>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV1004" s="2"/>
-      <c r="CY1004" s="2"/>
+      <c r="CW1004" s="2"/>
+      <c r="CZ1004" s="2"/>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CV1005" s="2"/>
-      <c r="CY1005" s="2"/>
+      <c r="CW1005" s="2"/>
+      <c r="CZ1005" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I6 I8:I1000" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I6 L6 I8:I1000 L8:L1000" type="list">
       <formula1>"FALSE,TRUE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6:T7 AE6 T8:T1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U6:U7 AF6 U8:U1005" type="list">
       <formula1>"MD5,SHA-1,SHA-256,SHA-384,SHA-512"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O6:O1005 Z6:Z1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P6:P1005 AA6:AA1005" type="list">
       <formula1>"embed,new,none,other,replace"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6:N1005 Y6:Y1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O6:O1005 Z6:Z1005" type="list">
       <formula1>"none,onLoad,onRequest,other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W6:W1005 M7:M1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X6:X1005 N7:N1005" type="list">
       <formula1>"FALSE,TRUE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6826,27 +6848,27 @@
       <formula1>"collection,image,work"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="BG6:BG1005 BK6:BK1005 BO6:BO1005 BS6:BS1005 BW6:BW1005 CA6:CA1005 CE6:CE1005 CI6:CI1005 CM6:CM1005 CQ6:CQ1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="BH6:BH1005 BL6:BL1005 BP6:BP1005 BT6:BT1005 BX6:BX1005 CB6:CB1005 CF6:CF1005 CJ6:CJ1005 CN6:CN1005 CR6:CR1005" type="list">
       <formula1>"Creator,Source,Subject"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ6:AJ1005 AP6:AP1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AK6:AK1005 AQ6:AQ1005" type="list">
       <formula1>"bulk,single,inclusive"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="DA1 DE1 DA6:DA1005 DE6:DE1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="DB1 DF1 DB6:DB1005 DF6:DF1005" type="list">
       <formula1>"bibliography,accessrestrict,acqinfo,altformavail,bioghist,custodhist,dimensions,edition,extent,inscription,legalstatus,note,originalsloc,physdesc,prefercite,processinfo,relatedmaterial,summary,userestrict"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="DB1:DB6 DD1:DD1005 DF1:DF1005 DH1:DH1005 DA2:DA5 DC2:DC5 DE2:DE5 DG2:DG5 DB7:DB1005" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="DC1:DC6 DE1:DE1005 DG1:DG1005 DI1:DI1005 DB2:DB5 DD2:DD5 DF2:DF5 DH2:DH5 DC7:DC1005" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I7 L7" type="list">
       <formula1>"FALSE,TRUE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="DC1 DG1 DC6:DC1005 DG6:DG1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="DD1 DH1 DD6:DD1005 DH6:DH1005" type="list">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/templates/bulk_import_DO_template.xlsx
+++ b/templates/bulk_import_DO_template.xlsx
@@ -1360,10 +1360,10 @@
   </sheetPr>
   <dimension ref="A1:DI1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6815,7 +6815,7 @@
       <c r="CZ1005" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I6 L6 I8:I1000 L8:L1000" type="list">
       <formula1>"FALSE,TRUE"</formula1>
       <formula2>0</formula2>
@@ -6832,7 +6832,7 @@
       <formula1>"none,onLoad,onRequest,other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X6:X1005 N7:N1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X6:X1005" type="list">
       <formula1>"FALSE,TRUE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6872,6 +6872,10 @@
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N1:N1005" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
